--- a/Job/D365基本操作フロー_2023-07-22.xlsx
+++ b/Job/D365基本操作フロー_2023-07-22.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\higuchi\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VSC\Travel\Job\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{04DB44D4-9CA2-4090-A778-D248E839C58D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F46E9A1D-CEC4-410E-AD47-54FF75E83034}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{45149C10-37E8-42D7-A192-C31206441CB1}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{45149C10-37E8-42D7-A192-C31206441CB1}"/>
   </bookViews>
   <sheets>
     <sheet name="Q2C" sheetId="1" r:id="rId1"/>
@@ -779,7 +779,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -794,42 +794,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
@@ -864,14 +828,47 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1778,242 +1775,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>185458</xdr:colOff>
-      <xdr:row>163</xdr:row>
-      <xdr:rowOff>25775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>217869</xdr:colOff>
-      <xdr:row>165</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="173" name="グループ化 172">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2018042C-860C-E94B-F21F-EF2AEC78C2AA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="5186083" y="32629850"/>
-          <a:ext cx="2032661" cy="469525"/>
-          <a:chOff x="5224183" y="32553650"/>
-          <a:chExt cx="2032661" cy="469525"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="37" name="直線コネクタ 36">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F9377C8-265E-9DA3-F337-B25FF557F77C}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvCxnSpPr/>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="5256689" y="32553650"/>
-            <a:ext cx="1972352" cy="0"/>
-          </a:xfrm>
-          <a:prstGeom prst="line">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln>
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="38" name="直線コネクタ 37">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8EF58C92-37F3-BFD0-916D-4D2FCF153164}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvCxnSpPr/>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="6244628" y="32565249"/>
-            <a:ext cx="0" cy="457926"/>
-          </a:xfrm>
-          <a:prstGeom prst="line">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln>
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="39" name="正方形/長方形 38">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FB871EC-A226-FCE3-23E7-0E36E21073E3}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="6259349" y="32562721"/>
-            <a:ext cx="997495" cy="365204"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:sysClr val="window" lastClr="FFFFFF"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>Cash</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="40" name="正方形/長方形 39">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DA6D5E2-E017-9F11-EBFE-47724619C8F6}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="5224183" y="32570377"/>
-            <a:ext cx="1003222" cy="443273"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:sysClr val="window" lastClr="FFFFFF"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>AR</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
@@ -2039,7 +1800,7 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10325100" cy="411255"/>
+          <a:ext cx="9842500" cy="392205"/>
           <a:chOff x="0" y="0"/>
           <a:chExt cx="7367138" cy="292814"/>
         </a:xfrm>
@@ -2257,16 +2018,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>18488</xdr:colOff>
-      <xdr:row>137</xdr:row>
-      <xdr:rowOff>35564</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>12138</xdr:colOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>156214</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>272302</xdr:colOff>
-      <xdr:row>139</xdr:row>
-      <xdr:rowOff>77320</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>265952</xdr:colOff>
+      <xdr:row>145</xdr:row>
+      <xdr:rowOff>7470</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2281,8 +2042,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3018863" y="27438989"/>
-          <a:ext cx="920564" cy="441806"/>
+          <a:off x="3187138" y="27207214"/>
+          <a:ext cx="888814" cy="422756"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -2476,13 +2237,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>323854</xdr:colOff>
-      <xdr:row>143</xdr:row>
+      <xdr:row>148</xdr:row>
       <xdr:rowOff>4857</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>323854</xdr:colOff>
-      <xdr:row>144</xdr:row>
+      <xdr:row>149</xdr:row>
       <xdr:rowOff>67975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2954,63 +2715,6 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>89325</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>83098</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>145374</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="101" name="カギ線コネクタ 179">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35FB6F0B-23C9-45C6-8F70-A644C0603F13}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:cxnSpLocks/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="16200000" flipH="1">
-          <a:off x="3609212" y="3471463"/>
-          <a:ext cx="621624" cy="327148"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln w="3175">
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
@@ -3936,13 +3640,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>152</xdr:row>
+      <xdr:row>157</xdr:row>
       <xdr:rowOff>178798</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>973</xdr:colOff>
-      <xdr:row>156</xdr:row>
+      <xdr:row>161</xdr:row>
       <xdr:rowOff>61698</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4027,13 +3731,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>168919</xdr:colOff>
-      <xdr:row>147</xdr:row>
+      <xdr:row>152</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>159625</xdr:colOff>
-      <xdr:row>149</xdr:row>
+      <xdr:row>154</xdr:row>
       <xdr:rowOff>38102</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4105,13 +3809,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>329100</xdr:colOff>
-      <xdr:row>149</xdr:row>
+      <xdr:row>154</xdr:row>
       <xdr:rowOff>38102</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>330961</xdr:colOff>
-      <xdr:row>152</xdr:row>
+      <xdr:row>157</xdr:row>
       <xdr:rowOff>178798</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4164,13 +3868,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>159</xdr:row>
+      <xdr:row>164</xdr:row>
       <xdr:rowOff>7348</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>39073</xdr:colOff>
-      <xdr:row>162</xdr:row>
+      <xdr:row>167</xdr:row>
       <xdr:rowOff>90273</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4255,13 +3959,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>329100</xdr:colOff>
-      <xdr:row>156</xdr:row>
+      <xdr:row>161</xdr:row>
       <xdr:rowOff>61697</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>33825</xdr:colOff>
-      <xdr:row>159</xdr:row>
+      <xdr:row>164</xdr:row>
       <xdr:rowOff>7347</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4314,13 +4018,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>159</xdr:row>
+      <xdr:row>164</xdr:row>
       <xdr:rowOff>16873</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>20023</xdr:colOff>
-      <xdr:row>162</xdr:row>
+      <xdr:row>167</xdr:row>
       <xdr:rowOff>99798</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4405,13 +4109,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>124</xdr:row>
+      <xdr:row>134</xdr:row>
       <xdr:rowOff>16873</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>29548</xdr:colOff>
-      <xdr:row>127</xdr:row>
+      <xdr:row>137</xdr:row>
       <xdr:rowOff>99798</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4580,7 +4284,7 @@
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>26161</xdr:colOff>
-      <xdr:row>124</xdr:row>
+      <xdr:row>134</xdr:row>
       <xdr:rowOff>16873</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4633,13 +4337,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>17950</xdr:colOff>
-      <xdr:row>127</xdr:row>
+      <xdr:row>137</xdr:row>
       <xdr:rowOff>106147</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>30650</xdr:colOff>
-      <xdr:row>131</xdr:row>
+      <xdr:row>141</xdr:row>
       <xdr:rowOff>194672</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4692,13 +4396,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>131</xdr:row>
+      <xdr:row>141</xdr:row>
       <xdr:rowOff>188323</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>29548</xdr:colOff>
-      <xdr:row>135</xdr:row>
+      <xdr:row>145</xdr:row>
       <xdr:rowOff>71223</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4783,13 +4487,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>124</xdr:row>
+      <xdr:row>134</xdr:row>
       <xdr:rowOff>16873</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>10498</xdr:colOff>
-      <xdr:row>127</xdr:row>
+      <xdr:row>137</xdr:row>
       <xdr:rowOff>99798</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4874,13 +4578,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>29548</xdr:colOff>
-      <xdr:row>125</xdr:row>
+      <xdr:row>135</xdr:row>
       <xdr:rowOff>158348</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>125</xdr:row>
+      <xdr:row>135</xdr:row>
       <xdr:rowOff>171048</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4933,13 +4637,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>118</xdr:row>
+      <xdr:row>123</xdr:row>
       <xdr:rowOff>169273</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>39073</xdr:colOff>
-      <xdr:row>122</xdr:row>
+      <xdr:row>127</xdr:row>
       <xdr:rowOff>52173</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5024,13 +4728,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>39073</xdr:colOff>
-      <xdr:row>160</xdr:row>
+      <xdr:row>165</xdr:row>
       <xdr:rowOff>148823</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>160</xdr:row>
+      <xdr:row>165</xdr:row>
       <xdr:rowOff>158348</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5195,6 +4899,188 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>169273</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>39073</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>52173</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="正方形/長方形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80ABB80B-1FE2-437D-B025-456764C1F860}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="663575" y="23600773"/>
+          <a:ext cx="1915498" cy="644900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>Payment Journal</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>[New]</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>169273</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>39073</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>52173</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="正方形/長方形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A565F62F-9726-4061-8422-798AA9D85410}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="663575" y="23600773"/>
+          <a:ext cx="1915498" cy="644900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>Payment Journal</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>[Save]</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -6891,8 +6777,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3490633" y="19047200"/>
-          <a:ext cx="2032661" cy="731098"/>
+          <a:off x="3331883" y="18142325"/>
+          <a:ext cx="1937411" cy="702523"/>
           <a:chOff x="2989263" y="2664836"/>
           <a:chExt cx="2049470" cy="568052"/>
         </a:xfrm>
@@ -9225,7 +9111,7 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10325100" cy="411255"/>
+          <a:ext cx="9842500" cy="392205"/>
           <a:chOff x="0" y="0"/>
           <a:chExt cx="7367138" cy="292814"/>
         </a:xfrm>
@@ -10424,8 +10310,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3361765" y="7261412"/>
-          <a:ext cx="2049470" cy="736139"/>
+          <a:off x="3212353" y="6992471"/>
+          <a:ext cx="1959823" cy="713727"/>
           <a:chOff x="2989263" y="2664836"/>
           <a:chExt cx="2049470" cy="568052"/>
         </a:xfrm>
@@ -10661,7 +10547,7 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10024794" cy="414617"/>
+          <a:ext cx="9591500" cy="399676"/>
           <a:chOff x="0" y="0"/>
           <a:chExt cx="9883502" cy="292814"/>
         </a:xfrm>
@@ -11533,20 +11419,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1589094-5F77-4116-B5DD-67D00BE0EA51}">
-  <dimension ref="A1:AE167"/>
+  <dimension ref="A1:AE172"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E28" sqref="E28"/>
-      <selection pane="bottomLeft" activeCell="AC162" sqref="AC162"/>
+      <selection pane="bottomLeft" activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5" defaultRowHeight="15.75" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="5" defaultRowHeight="15" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="31" width="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -11576,12 +11462,11 @@
       <c r="AA1" s="2"/>
       <c r="AB1" s="2"/>
       <c r="AC1" s="2"/>
-      <c r="AD1" s="30"/>
-    </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A2" s="3"/>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -11614,79 +11499,79 @@
       <c r="AD3" s="4"/>
       <c r="AE3" s="4"/>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="A4" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="8" t="s">
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="9"/>
-      <c r="O4" s="9"/>
-      <c r="P4" s="9"/>
-      <c r="Q4" s="9"/>
-      <c r="R4" s="9"/>
-      <c r="S4" s="9"/>
-      <c r="T4" s="10"/>
-      <c r="U4" s="5" t="s">
+      <c r="L4" s="24"/>
+      <c r="M4" s="24"/>
+      <c r="N4" s="24"/>
+      <c r="O4" s="24"/>
+      <c r="P4" s="24"/>
+      <c r="Q4" s="24"/>
+      <c r="R4" s="24"/>
+      <c r="S4" s="24"/>
+      <c r="T4" s="25"/>
+      <c r="U4" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="V4" s="6"/>
-      <c r="W4" s="6"/>
-      <c r="X4" s="6"/>
-      <c r="Y4" s="6"/>
-      <c r="Z4" s="6"/>
-      <c r="AA4" s="6"/>
-      <c r="AB4" s="6"/>
-      <c r="AC4" s="6"/>
-      <c r="AD4" s="6"/>
-      <c r="AE4" s="7"/>
-    </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A5" s="11"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="15"/>
-      <c r="N5" s="15"/>
-      <c r="O5" s="15"/>
-      <c r="P5" s="15"/>
-      <c r="Q5" s="15"/>
-      <c r="R5" s="15"/>
-      <c r="S5" s="15"/>
-      <c r="T5" s="16"/>
-      <c r="U5" s="11"/>
-      <c r="V5" s="12"/>
-      <c r="W5" s="12"/>
-      <c r="X5" s="12"/>
-      <c r="Y5" s="12"/>
-      <c r="Z5" s="12"/>
-      <c r="AA5" s="12"/>
-      <c r="AB5" s="12"/>
-      <c r="AC5" s="12"/>
-      <c r="AD5" s="12"/>
-      <c r="AE5" s="13"/>
-    </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="V4" s="18"/>
+      <c r="W4" s="18"/>
+      <c r="X4" s="18"/>
+      <c r="Y4" s="18"/>
+      <c r="Z4" s="18"/>
+      <c r="AA4" s="18"/>
+      <c r="AB4" s="18"/>
+      <c r="AC4" s="18"/>
+      <c r="AD4" s="18"/>
+      <c r="AE4" s="19"/>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="A5" s="20"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="27"/>
+      <c r="M5" s="27"/>
+      <c r="N5" s="27"/>
+      <c r="O5" s="27"/>
+      <c r="P5" s="27"/>
+      <c r="Q5" s="27"/>
+      <c r="R5" s="27"/>
+      <c r="S5" s="27"/>
+      <c r="T5" s="28"/>
+      <c r="U5" s="20"/>
+      <c r="V5" s="21"/>
+      <c r="W5" s="21"/>
+      <c r="X5" s="21"/>
+      <c r="Y5" s="21"/>
+      <c r="Z5" s="21"/>
+      <c r="AA5" s="21"/>
+      <c r="AB5" s="21"/>
+      <c r="AC5" s="21"/>
+      <c r="AD5" s="21"/>
+      <c r="AE5" s="22"/>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A6" s="1"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -11706,7 +11591,7 @@
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
       <c r="S6" s="2"/>
-      <c r="T6" s="17"/>
+      <c r="T6" s="5"/>
       <c r="U6" s="1"/>
       <c r="V6" s="2"/>
       <c r="W6" s="2"/>
@@ -11717,1407 +11602,1442 @@
       <c r="AB6" s="2"/>
       <c r="AC6" s="2"/>
       <c r="AD6" s="2"/>
-      <c r="AE6" s="17"/>
-    </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE6" s="5"/>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A7" s="3"/>
       <c r="K7" s="3"/>
-      <c r="T7" s="18"/>
+      <c r="T7" s="6"/>
       <c r="U7" s="3"/>
-      <c r="V7" s="19"/>
-      <c r="AE7" s="18"/>
-    </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="V7" s="7"/>
+      <c r="AE7" s="6"/>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A8" s="3"/>
       <c r="K8" s="3"/>
-      <c r="T8" s="18"/>
+      <c r="T8" s="6"/>
       <c r="U8" s="3"/>
-      <c r="AE8" s="18"/>
-    </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE8" s="6"/>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A9" s="3"/>
       <c r="K9" s="3"/>
-      <c r="T9" s="18"/>
+      <c r="T9" s="6"/>
       <c r="U9" s="3"/>
-      <c r="AE9" s="18"/>
-    </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE9" s="6"/>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A10" s="3"/>
       <c r="K10" s="3"/>
-      <c r="T10" s="18"/>
+      <c r="T10" s="6"/>
       <c r="U10" s="3"/>
-      <c r="AE10" s="18"/>
-    </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE10" s="6"/>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A11" s="3"/>
       <c r="K11" s="3"/>
-      <c r="T11" s="18"/>
+      <c r="T11" s="6"/>
       <c r="U11" s="3"/>
-      <c r="V11" s="19" t="s">
+      <c r="V11" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="W11" s="20" t="s">
+      <c r="W11" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="Z11" s="21"/>
-      <c r="AE11" s="18"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="Z11" s="9"/>
+      <c r="AE11" s="6"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A12" s="3"/>
       <c r="K12" s="3"/>
-      <c r="T12" s="18"/>
+      <c r="T12" s="6"/>
       <c r="U12" s="3"/>
-      <c r="AE12" s="18"/>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE12" s="6"/>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A13" s="3"/>
       <c r="K13" s="3"/>
-      <c r="T13" s="18"/>
+      <c r="T13" s="6"/>
       <c r="U13" s="3"/>
-      <c r="V13" s="22" t="s">
+      <c r="V13" s="10" t="s">
         <v>4</v>
       </c>
       <c r="W13" t="s">
         <v>54</v>
       </c>
-      <c r="AE13" s="18"/>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE13" s="6"/>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A14" s="3"/>
       <c r="K14" s="3"/>
-      <c r="T14" s="18"/>
+      <c r="T14" s="6"/>
       <c r="U14" s="3"/>
-      <c r="V14" s="22"/>
+      <c r="V14" s="10"/>
       <c r="W14" t="s">
         <v>53</v>
       </c>
-      <c r="AE14" s="18"/>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE14" s="6"/>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A15" s="3"/>
       <c r="K15" s="3"/>
-      <c r="T15" s="18"/>
+      <c r="T15" s="6"/>
       <c r="U15" s="3"/>
-      <c r="V15" s="22"/>
-      <c r="AE15" s="18"/>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="V15" s="10"/>
+      <c r="AE15" s="6"/>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A16" s="3"/>
       <c r="K16" s="3"/>
-      <c r="T16" s="18"/>
+      <c r="T16" s="6"/>
       <c r="U16" s="3"/>
-      <c r="V16" s="19" t="s">
+      <c r="V16" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="W16" s="20" t="s">
+      <c r="W16" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="AE16" s="18"/>
-    </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE16" s="6"/>
+    </row>
+    <row r="17" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A17" s="3"/>
       <c r="K17" s="3"/>
-      <c r="T17" s="18"/>
+      <c r="T17" s="6"/>
       <c r="U17" s="3"/>
-      <c r="AE17" s="18"/>
-    </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE17" s="6"/>
+    </row>
+    <row r="18" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A18" s="3"/>
       <c r="K18" s="3"/>
-      <c r="T18" s="18"/>
+      <c r="T18" s="6"/>
       <c r="U18" s="3"/>
-      <c r="V18" s="22" t="s">
+      <c r="V18" s="10" t="s">
         <v>4</v>
       </c>
       <c r="W18" t="s">
         <v>46</v>
       </c>
-      <c r="AE18" s="18"/>
-    </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE18" s="6"/>
+    </row>
+    <row r="19" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A19" s="3"/>
       <c r="K19" s="3"/>
-      <c r="T19" s="18"/>
+      <c r="T19" s="6"/>
       <c r="U19" s="3"/>
-      <c r="V19" s="22" t="s">
+      <c r="V19" s="10" t="s">
         <v>4</v>
       </c>
       <c r="W19" t="s">
         <v>47</v>
       </c>
-      <c r="AE19" s="18"/>
-    </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE19" s="6"/>
+    </row>
+    <row r="20" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A20" s="3"/>
       <c r="K20" s="3"/>
-      <c r="T20" s="18"/>
+      <c r="T20" s="6"/>
       <c r="U20" s="3"/>
-      <c r="AE20" s="18"/>
-    </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE20" s="6"/>
+    </row>
+    <row r="21" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A21" s="3"/>
       <c r="K21" s="3"/>
-      <c r="T21" s="18"/>
+      <c r="T21" s="6"/>
       <c r="U21" s="3"/>
-      <c r="V21" s="22"/>
-      <c r="AE21" s="18"/>
-    </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="V21" s="10"/>
+      <c r="AE21" s="6"/>
+    </row>
+    <row r="22" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A22" s="3"/>
       <c r="K22" s="3"/>
-      <c r="T22" s="18"/>
+      <c r="T22" s="6"/>
       <c r="U22" s="3"/>
-      <c r="V22" s="22"/>
-      <c r="AE22" s="18"/>
-    </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="V22" s="10"/>
+      <c r="AE22" s="6"/>
+    </row>
+    <row r="23" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A23" s="3"/>
       <c r="K23" s="3"/>
-      <c r="T23" s="18"/>
+      <c r="T23" s="6"/>
       <c r="U23" s="3"/>
-      <c r="V23" s="22"/>
-      <c r="AE23" s="18"/>
-    </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="V23" s="10"/>
+      <c r="AE23" s="6"/>
+    </row>
+    <row r="24" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A24" s="3"/>
       <c r="K24" s="3"/>
-      <c r="T24" s="18"/>
+      <c r="T24" s="6"/>
       <c r="U24" s="3"/>
-      <c r="AE24" s="18"/>
-    </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE24" s="6"/>
+    </row>
+    <row r="25" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A25" s="3"/>
       <c r="K25" s="3"/>
-      <c r="T25" s="18"/>
+      <c r="T25" s="6"/>
       <c r="U25" s="3"/>
-      <c r="V25" s="22"/>
-      <c r="AE25" s="18"/>
-    </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="V25" s="10"/>
+      <c r="AE25" s="6"/>
+    </row>
+    <row r="26" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A26" s="3"/>
       <c r="K26" s="3"/>
-      <c r="T26" s="18"/>
+      <c r="T26" s="6"/>
       <c r="U26" s="3"/>
-      <c r="V26" s="22" t="s">
+      <c r="V26" s="10" t="s">
         <v>4</v>
       </c>
       <c r="W26" t="s">
         <v>15</v>
       </c>
-      <c r="AE26" s="18"/>
-    </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE26" s="6"/>
+    </row>
+    <row r="27" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A27" s="3"/>
       <c r="K27" s="3"/>
-      <c r="T27" s="18"/>
+      <c r="T27" s="6"/>
       <c r="U27" s="3"/>
-      <c r="AE27" s="18"/>
-    </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE27" s="6"/>
+    </row>
+    <row r="28" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A28" s="3"/>
       <c r="K28" s="3"/>
-      <c r="T28" s="18"/>
+      <c r="T28" s="6"/>
       <c r="U28" s="3"/>
-      <c r="AE28" s="18"/>
-    </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE28" s="6"/>
+    </row>
+    <row r="29" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A29" s="3"/>
       <c r="K29" s="3"/>
-      <c r="T29" s="18"/>
+      <c r="T29" s="6"/>
       <c r="U29" s="3"/>
-      <c r="AE29" s="18"/>
-    </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE29" s="6"/>
+    </row>
+    <row r="30" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A30" s="3"/>
       <c r="K30" s="3"/>
-      <c r="T30" s="18"/>
+      <c r="T30" s="6"/>
       <c r="U30" s="3"/>
-      <c r="AE30" s="18"/>
-    </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE30" s="6"/>
+    </row>
+    <row r="31" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A31" s="3"/>
       <c r="K31" s="3"/>
-      <c r="T31" s="18"/>
+      <c r="T31" s="6"/>
       <c r="U31" s="3"/>
-      <c r="V31" s="19" t="s">
+      <c r="V31" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="W31" s="20" t="s">
+      <c r="W31" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="Z31" s="21"/>
-      <c r="AE31" s="18"/>
-    </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="Z31" s="9"/>
+      <c r="AE31" s="6"/>
+    </row>
+    <row r="32" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A32" s="3"/>
       <c r="K32" s="3"/>
-      <c r="T32" s="18"/>
+      <c r="T32" s="6"/>
       <c r="U32" s="3"/>
-      <c r="AE32" s="18"/>
-    </row>
-    <row r="33" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE32" s="6"/>
+    </row>
+    <row r="33" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A33" s="3"/>
       <c r="K33" s="3"/>
-      <c r="T33" s="18"/>
+      <c r="T33" s="6"/>
       <c r="U33" s="3"/>
-      <c r="V33" s="22" t="s">
+      <c r="V33" s="10" t="s">
         <v>4</v>
       </c>
       <c r="W33" t="s">
         <v>55</v>
       </c>
-      <c r="AE33" s="18"/>
-    </row>
-    <row r="34" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE33" s="6"/>
+    </row>
+    <row r="34" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A34" s="3"/>
       <c r="K34" s="3"/>
-      <c r="T34" s="18"/>
+      <c r="T34" s="6"/>
       <c r="U34" s="3"/>
-      <c r="V34" s="22" t="s">
+      <c r="V34" s="10" t="s">
         <v>4</v>
       </c>
       <c r="W34" t="s">
         <v>49</v>
       </c>
-      <c r="AE34" s="18"/>
-    </row>
-    <row r="35" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE34" s="6"/>
+    </row>
+    <row r="35" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A35" s="3"/>
       <c r="K35" s="3"/>
-      <c r="T35" s="18"/>
+      <c r="T35" s="6"/>
       <c r="U35" s="3"/>
-      <c r="AE35" s="18"/>
-    </row>
-    <row r="36" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE35" s="6"/>
+    </row>
+    <row r="36" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A36" s="3"/>
       <c r="K36" s="3"/>
-      <c r="T36" s="18"/>
+      <c r="T36" s="6"/>
       <c r="U36" s="3"/>
-      <c r="AE36" s="18"/>
-    </row>
-    <row r="37" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE36" s="6"/>
+    </row>
+    <row r="37" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A37" s="3"/>
       <c r="K37" s="3"/>
-      <c r="T37" s="18"/>
+      <c r="T37" s="6"/>
       <c r="U37" s="3"/>
-      <c r="AE37" s="18"/>
-    </row>
-    <row r="38" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A38" s="23"/>
-      <c r="B38" s="24"/>
-      <c r="C38" s="24"/>
-      <c r="D38" s="24"/>
-      <c r="E38" s="24"/>
-      <c r="F38" s="24"/>
-      <c r="G38" s="24"/>
-      <c r="H38" s="24"/>
-      <c r="I38" s="24"/>
-      <c r="J38" s="24"/>
-      <c r="K38" s="23"/>
-      <c r="L38" s="24"/>
-      <c r="M38" s="24"/>
-      <c r="N38" s="24"/>
-      <c r="O38" s="24"/>
-      <c r="P38" s="24"/>
-      <c r="Q38" s="24"/>
-      <c r="R38" s="24"/>
-      <c r="S38" s="24"/>
-      <c r="T38" s="25"/>
-      <c r="U38" s="23"/>
-      <c r="V38" s="24"/>
-      <c r="W38" s="24"/>
-      <c r="X38" s="24"/>
-      <c r="Y38" s="24"/>
-      <c r="Z38" s="24"/>
-      <c r="AA38" s="24"/>
-      <c r="AB38" s="24"/>
-      <c r="AC38" s="24"/>
-      <c r="AD38" s="24"/>
-      <c r="AE38" s="25"/>
-    </row>
-    <row r="39" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE37" s="6"/>
+    </row>
+    <row r="38" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="A38" s="11"/>
+      <c r="B38" s="12"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="12"/>
+      <c r="H38" s="12"/>
+      <c r="I38" s="12"/>
+      <c r="J38" s="12"/>
+      <c r="K38" s="11"/>
+      <c r="L38" s="12"/>
+      <c r="M38" s="12"/>
+      <c r="N38" s="12"/>
+      <c r="O38" s="12"/>
+      <c r="P38" s="12"/>
+      <c r="Q38" s="12"/>
+      <c r="R38" s="12"/>
+      <c r="S38" s="12"/>
+      <c r="T38" s="13"/>
+      <c r="U38" s="11"/>
+      <c r="V38" s="12"/>
+      <c r="W38" s="12"/>
+      <c r="X38" s="12"/>
+      <c r="Y38" s="12"/>
+      <c r="Z38" s="12"/>
+      <c r="AA38" s="12"/>
+      <c r="AB38" s="12"/>
+      <c r="AC38" s="12"/>
+      <c r="AD38" s="12"/>
+      <c r="AE38" s="13"/>
+    </row>
+    <row r="39" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A39" s="3"/>
       <c r="K39" s="3"/>
-      <c r="T39" s="18"/>
+      <c r="T39" s="6"/>
       <c r="U39" s="3"/>
-      <c r="AE39" s="18"/>
-    </row>
-    <row r="40" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE39" s="6"/>
+    </row>
+    <row r="40" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A40" s="3"/>
       <c r="K40" s="3"/>
-      <c r="T40" s="18"/>
+      <c r="T40" s="6"/>
       <c r="U40" s="3"/>
-      <c r="AE40" s="18"/>
-    </row>
-    <row r="41" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE40" s="6"/>
+    </row>
+    <row r="41" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A41" s="3"/>
       <c r="K41" s="3"/>
-      <c r="T41" s="18"/>
+      <c r="T41" s="6"/>
       <c r="U41" s="3"/>
-      <c r="AE41" s="18"/>
-    </row>
-    <row r="42" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE41" s="6"/>
+    </row>
+    <row r="42" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A42" s="3"/>
       <c r="K42" s="3"/>
-      <c r="T42" s="18"/>
+      <c r="T42" s="6"/>
       <c r="U42" s="3"/>
-      <c r="AE42" s="18"/>
-    </row>
-    <row r="43" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE42" s="6"/>
+    </row>
+    <row r="43" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A43" s="3"/>
       <c r="K43" s="3"/>
-      <c r="T43" s="18"/>
+      <c r="T43" s="6"/>
       <c r="U43" s="3"/>
-      <c r="AE43" s="18"/>
-    </row>
-    <row r="44" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE43" s="6"/>
+    </row>
+    <row r="44" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A44" s="3"/>
       <c r="K44" s="3"/>
-      <c r="T44" s="18"/>
+      <c r="T44" s="6"/>
       <c r="U44" s="3"/>
-      <c r="V44" s="19" t="s">
+      <c r="V44" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="W44" s="20" t="s">
+      <c r="W44" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="Z44" s="21"/>
-      <c r="AE44" s="18"/>
-    </row>
-    <row r="45" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="Z44" s="9"/>
+      <c r="AE44" s="6"/>
+    </row>
+    <row r="45" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A45" s="3"/>
       <c r="K45" s="3"/>
-      <c r="T45" s="18"/>
+      <c r="T45" s="6"/>
       <c r="U45" s="3"/>
-      <c r="AE45" s="18"/>
-    </row>
-    <row r="46" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE45" s="6"/>
+    </row>
+    <row r="46" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A46" s="3"/>
       <c r="K46" s="3"/>
-      <c r="T46" s="18"/>
+      <c r="T46" s="6"/>
       <c r="U46" s="3"/>
-      <c r="V46" s="22" t="s">
+      <c r="V46" s="10" t="s">
         <v>4</v>
       </c>
       <c r="W46" t="s">
         <v>54</v>
       </c>
-      <c r="AE46" s="18"/>
-    </row>
-    <row r="47" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE46" s="6"/>
+    </row>
+    <row r="47" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A47" s="3"/>
       <c r="K47" s="3"/>
-      <c r="T47" s="18"/>
+      <c r="T47" s="6"/>
       <c r="U47" s="3"/>
-      <c r="V47" s="22"/>
+      <c r="V47" s="10"/>
       <c r="W47" t="s">
         <v>53</v>
       </c>
-      <c r="AE47" s="18"/>
-    </row>
-    <row r="48" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE47" s="6"/>
+    </row>
+    <row r="48" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A48" s="3"/>
       <c r="K48" s="3"/>
-      <c r="T48" s="18"/>
+      <c r="T48" s="6"/>
       <c r="U48" s="3"/>
-      <c r="V48" s="22"/>
-      <c r="AE48" s="18"/>
-    </row>
-    <row r="49" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="V48" s="10"/>
+      <c r="AE48" s="6"/>
+    </row>
+    <row r="49" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A49" s="3"/>
       <c r="K49" s="3"/>
-      <c r="T49" s="18"/>
+      <c r="T49" s="6"/>
       <c r="U49" s="3"/>
-      <c r="V49" s="19" t="s">
+      <c r="V49" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="W49" s="20" t="s">
+      <c r="W49" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="AE49" s="18"/>
-    </row>
-    <row r="50" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE49" s="6"/>
+    </row>
+    <row r="50" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A50" s="3"/>
       <c r="K50" s="3"/>
-      <c r="T50" s="18"/>
+      <c r="T50" s="6"/>
       <c r="U50" s="3"/>
-      <c r="AE50" s="18"/>
-    </row>
-    <row r="51" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE50" s="6"/>
+    </row>
+    <row r="51" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A51" s="3"/>
       <c r="K51" s="3"/>
-      <c r="T51" s="18"/>
+      <c r="T51" s="6"/>
       <c r="U51" s="3"/>
-      <c r="V51" s="22" t="s">
+      <c r="V51" s="10" t="s">
         <v>4</v>
       </c>
       <c r="W51" t="s">
         <v>9</v>
       </c>
-      <c r="AE51" s="18"/>
-    </row>
-    <row r="52" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE51" s="6"/>
+    </row>
+    <row r="52" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A52" s="3"/>
       <c r="K52" s="3"/>
-      <c r="T52" s="18"/>
+      <c r="T52" s="6"/>
       <c r="U52" s="3"/>
-      <c r="V52" s="22" t="s">
+      <c r="V52" s="10" t="s">
         <v>4</v>
       </c>
       <c r="W52" t="s">
         <v>10</v>
       </c>
-      <c r="AE52" s="18"/>
-    </row>
-    <row r="53" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE52" s="6"/>
+    </row>
+    <row r="53" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A53" s="3"/>
       <c r="K53" s="3"/>
-      <c r="T53" s="18"/>
+      <c r="T53" s="6"/>
       <c r="U53" s="3"/>
       <c r="W53" t="s">
         <v>11</v>
       </c>
-      <c r="AE53" s="18"/>
-    </row>
-    <row r="54" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE53" s="6"/>
+    </row>
+    <row r="54" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A54" s="3"/>
       <c r="K54" s="3"/>
-      <c r="T54" s="18"/>
+      <c r="T54" s="6"/>
       <c r="U54" s="3"/>
-      <c r="V54" s="22" t="s">
+      <c r="V54" s="10" t="s">
         <v>4</v>
       </c>
       <c r="W54" t="s">
         <v>12</v>
       </c>
-      <c r="AE54" s="18"/>
-    </row>
-    <row r="55" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE54" s="6"/>
+    </row>
+    <row r="55" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A55" s="3"/>
       <c r="K55" s="3"/>
-      <c r="T55" s="18"/>
+      <c r="T55" s="6"/>
       <c r="U55" s="3"/>
-      <c r="V55" s="22" t="s">
+      <c r="V55" s="10" t="s">
         <v>4</v>
       </c>
       <c r="W55" t="s">
         <v>13</v>
       </c>
-      <c r="AE55" s="18"/>
-    </row>
-    <row r="56" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE55" s="6"/>
+    </row>
+    <row r="56" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A56" s="3"/>
       <c r="K56" s="3"/>
-      <c r="T56" s="18"/>
+      <c r="T56" s="6"/>
       <c r="U56" s="3"/>
-      <c r="V56" s="22" t="s">
+      <c r="V56" s="10" t="s">
         <v>4</v>
       </c>
       <c r="W56" t="s">
         <v>14</v>
       </c>
-      <c r="AE56" s="18"/>
-    </row>
-    <row r="57" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE56" s="6"/>
+    </row>
+    <row r="57" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A57" s="3"/>
       <c r="K57" s="3"/>
-      <c r="T57" s="18"/>
+      <c r="T57" s="6"/>
       <c r="U57" s="3"/>
-      <c r="V57" s="22" t="s">
+      <c r="V57" s="10" t="s">
         <v>4</v>
       </c>
       <c r="W57" t="s">
         <v>15</v>
       </c>
-      <c r="AE57" s="18"/>
-    </row>
-    <row r="58" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE57" s="6"/>
+    </row>
+    <row r="58" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A58" s="3"/>
       <c r="K58" s="3"/>
-      <c r="T58" s="18"/>
+      <c r="T58" s="6"/>
       <c r="U58" s="3"/>
-      <c r="V58" s="22" t="s">
+      <c r="V58" s="10" t="s">
         <v>4</v>
       </c>
       <c r="W58" t="s">
         <v>16</v>
       </c>
-      <c r="AE58" s="18"/>
-    </row>
-    <row r="59" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE58" s="6"/>
+    </row>
+    <row r="59" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A59" s="3"/>
       <c r="K59" s="3"/>
-      <c r="T59" s="18"/>
+      <c r="T59" s="6"/>
       <c r="U59" s="3"/>
-      <c r="V59" s="22"/>
-      <c r="AE59" s="18"/>
-    </row>
-    <row r="60" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="V59" s="10"/>
+      <c r="AE59" s="6"/>
+    </row>
+    <row r="60" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A60" s="3"/>
       <c r="K60" s="3"/>
-      <c r="T60" s="18"/>
+      <c r="T60" s="6"/>
       <c r="U60" s="3"/>
-      <c r="AE60" s="18"/>
-    </row>
-    <row r="61" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE60" s="6"/>
+    </row>
+    <row r="61" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A61" s="3"/>
       <c r="K61" s="3"/>
-      <c r="T61" s="18"/>
+      <c r="T61" s="6"/>
       <c r="U61" s="3"/>
-      <c r="AE61" s="18"/>
-    </row>
-    <row r="62" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE61" s="6"/>
+    </row>
+    <row r="62" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A62" s="3"/>
       <c r="K62" s="3"/>
-      <c r="T62" s="18"/>
+      <c r="T62" s="6"/>
       <c r="U62" s="3"/>
-      <c r="AE62" s="18"/>
-    </row>
-    <row r="63" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE62" s="6"/>
+    </row>
+    <row r="63" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A63" s="3"/>
       <c r="K63" s="3"/>
-      <c r="T63" s="18"/>
+      <c r="T63" s="6"/>
       <c r="U63" s="3"/>
-      <c r="AE63" s="18"/>
-    </row>
-    <row r="64" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE63" s="6"/>
+    </row>
+    <row r="64" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A64" s="3"/>
       <c r="K64" s="3"/>
-      <c r="T64" s="18"/>
+      <c r="T64" s="6"/>
       <c r="U64" s="3"/>
-      <c r="V64" s="19" t="s">
+      <c r="V64" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="W64" s="20" t="s">
+      <c r="W64" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="Z64" s="21"/>
-      <c r="AE64" s="18"/>
-    </row>
-    <row r="65" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="Z64" s="9"/>
+      <c r="AE64" s="6"/>
+    </row>
+    <row r="65" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A65" s="3"/>
       <c r="K65" s="3"/>
-      <c r="T65" s="18"/>
+      <c r="T65" s="6"/>
       <c r="U65" s="3"/>
-      <c r="AE65" s="18"/>
-    </row>
-    <row r="66" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE65" s="6"/>
+    </row>
+    <row r="66" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A66" s="3"/>
       <c r="K66" s="3"/>
-      <c r="T66" s="18"/>
+      <c r="T66" s="6"/>
       <c r="U66" s="3"/>
-      <c r="V66" s="22" t="s">
+      <c r="V66" s="10" t="s">
         <v>4</v>
       </c>
       <c r="W66" t="s">
         <v>19</v>
       </c>
-      <c r="AE66" s="18"/>
-    </row>
-    <row r="67" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE66" s="6"/>
+    </row>
+    <row r="67" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A67" s="3"/>
       <c r="K67" s="3"/>
-      <c r="T67" s="18"/>
+      <c r="T67" s="6"/>
       <c r="U67" s="3"/>
-      <c r="V67" s="22" t="s">
+      <c r="V67" s="10" t="s">
         <v>4</v>
       </c>
       <c r="W67" t="s">
         <v>20</v>
       </c>
-      <c r="AE67" s="18"/>
-    </row>
-    <row r="68" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE67" s="6"/>
+    </row>
+    <row r="68" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A68" s="3"/>
       <c r="K68" s="3"/>
-      <c r="T68" s="18"/>
+      <c r="T68" s="6"/>
       <c r="U68" s="3"/>
-      <c r="AE68" s="18"/>
-    </row>
-    <row r="69" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE68" s="6"/>
+    </row>
+    <row r="69" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A69" s="3"/>
       <c r="K69" s="3"/>
-      <c r="T69" s="18"/>
+      <c r="T69" s="6"/>
       <c r="U69" s="3"/>
-      <c r="AE69" s="18"/>
-    </row>
-    <row r="70" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE69" s="6"/>
+    </row>
+    <row r="70" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A70" s="3"/>
       <c r="K70" s="3"/>
-      <c r="T70" s="18"/>
+      <c r="T70" s="6"/>
       <c r="U70" s="3"/>
-      <c r="AE70" s="18"/>
-    </row>
-    <row r="71" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE70" s="6"/>
+    </row>
+    <row r="71" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A71" s="3"/>
       <c r="K71" s="3"/>
-      <c r="T71" s="18"/>
+      <c r="T71" s="6"/>
       <c r="U71" s="3"/>
-      <c r="AE71" s="18"/>
-    </row>
-    <row r="72" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE71" s="6"/>
+    </row>
+    <row r="72" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A72" s="3"/>
       <c r="K72" s="3"/>
-      <c r="T72" s="18"/>
+      <c r="T72" s="6"/>
       <c r="U72" s="3"/>
-      <c r="AE72" s="18"/>
-    </row>
-    <row r="73" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE72" s="6"/>
+    </row>
+    <row r="73" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A73" s="3"/>
       <c r="K73" s="3"/>
-      <c r="T73" s="18"/>
+      <c r="T73" s="6"/>
       <c r="U73" s="3"/>
-      <c r="AE73" s="18"/>
-    </row>
-    <row r="74" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE73" s="6"/>
+    </row>
+    <row r="74" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A74" s="3"/>
       <c r="K74" s="3"/>
-      <c r="T74" s="18"/>
+      <c r="T74" s="6"/>
       <c r="U74" s="3"/>
-      <c r="AE74" s="18"/>
-    </row>
-    <row r="75" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE74" s="6"/>
+    </row>
+    <row r="75" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A75" s="3"/>
       <c r="K75" s="3"/>
-      <c r="T75" s="18"/>
+      <c r="T75" s="6"/>
       <c r="U75" s="3"/>
-      <c r="AE75" s="18"/>
-    </row>
-    <row r="76" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE75" s="6"/>
+    </row>
+    <row r="76" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A76" s="3"/>
       <c r="K76" s="3"/>
-      <c r="T76" s="18"/>
+      <c r="T76" s="6"/>
       <c r="U76" s="3"/>
-      <c r="Z76" s="21"/>
-      <c r="AE76" s="18"/>
-    </row>
-    <row r="77" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="Z76" s="9"/>
+      <c r="AE76" s="6"/>
+    </row>
+    <row r="77" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A77" s="3"/>
       <c r="K77" s="3"/>
-      <c r="T77" s="18"/>
+      <c r="T77" s="6"/>
       <c r="U77" s="3"/>
-      <c r="V77" s="19" t="s">
+      <c r="V77" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="W77" s="20" t="s">
+      <c r="W77" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="AE77" s="18"/>
-    </row>
-    <row r="78" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE77" s="6"/>
+    </row>
+    <row r="78" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A78" s="3"/>
       <c r="K78" s="3"/>
-      <c r="T78" s="18"/>
+      <c r="T78" s="6"/>
       <c r="U78" s="3"/>
-      <c r="AE78" s="18"/>
-    </row>
-    <row r="79" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE78" s="6"/>
+    </row>
+    <row r="79" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A79" s="3"/>
       <c r="K79" s="3"/>
-      <c r="T79" s="18"/>
+      <c r="T79" s="6"/>
       <c r="U79" s="3"/>
-      <c r="V79" s="22" t="s">
+      <c r="V79" s="10" t="s">
         <v>4</v>
       </c>
       <c r="W79" t="s">
         <v>22</v>
       </c>
-      <c r="AE79" s="18"/>
-    </row>
-    <row r="80" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE79" s="6"/>
+    </row>
+    <row r="80" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A80" s="3"/>
       <c r="K80" s="3"/>
-      <c r="T80" s="18"/>
+      <c r="T80" s="6"/>
       <c r="U80" s="3"/>
-      <c r="V80" s="22" t="s">
+      <c r="V80" s="10" t="s">
         <v>4</v>
       </c>
       <c r="W80" t="s">
         <v>23</v>
       </c>
-      <c r="AE80" s="18"/>
-    </row>
-    <row r="81" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE80" s="6"/>
+    </row>
+    <row r="81" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A81" s="3"/>
       <c r="K81" s="3"/>
-      <c r="T81" s="18"/>
+      <c r="T81" s="6"/>
       <c r="U81" s="3"/>
-      <c r="AE81" s="18"/>
-    </row>
-    <row r="82" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE81" s="6"/>
+    </row>
+    <row r="82" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A82" s="3"/>
       <c r="K82" s="3"/>
-      <c r="T82" s="18"/>
+      <c r="T82" s="6"/>
       <c r="U82" s="3"/>
-      <c r="AE82" s="18"/>
-    </row>
-    <row r="83" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE82" s="6"/>
+    </row>
+    <row r="83" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A83" s="3"/>
       <c r="K83" s="3"/>
-      <c r="T83" s="18"/>
+      <c r="T83" s="6"/>
       <c r="U83" s="3"/>
-      <c r="AE83" s="18"/>
-    </row>
-    <row r="84" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE83" s="6"/>
+    </row>
+    <row r="84" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A84" s="3"/>
       <c r="K84" s="3"/>
-      <c r="T84" s="18"/>
+      <c r="T84" s="6"/>
       <c r="U84" s="3"/>
-      <c r="AE84" s="18"/>
-    </row>
-    <row r="85" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE84" s="6"/>
+    </row>
+    <row r="85" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A85" s="3"/>
       <c r="K85" s="3"/>
-      <c r="T85" s="18"/>
+      <c r="T85" s="6"/>
       <c r="U85" s="3"/>
-      <c r="AE85" s="18"/>
-    </row>
-    <row r="86" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE85" s="6"/>
+    </row>
+    <row r="86" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A86" s="3"/>
       <c r="K86" s="3"/>
-      <c r="T86" s="18"/>
+      <c r="T86" s="6"/>
       <c r="U86" s="3"/>
-      <c r="AE86" s="18"/>
-    </row>
-    <row r="87" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE86" s="6"/>
+    </row>
+    <row r="87" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A87" s="3"/>
       <c r="K87" s="3"/>
-      <c r="T87" s="18"/>
+      <c r="T87" s="6"/>
       <c r="U87" s="3"/>
-      <c r="AE87" s="18"/>
-    </row>
-    <row r="88" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE87" s="6"/>
+    </row>
+    <row r="88" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A88" s="3"/>
       <c r="K88" s="3"/>
-      <c r="T88" s="18"/>
+      <c r="T88" s="6"/>
       <c r="U88" s="3"/>
-      <c r="V88" s="19" t="s">
+      <c r="V88" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="W88" s="20" t="s">
+      <c r="W88" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="AE88" s="18"/>
-    </row>
-    <row r="89" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE88" s="6"/>
+    </row>
+    <row r="89" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A89" s="3"/>
       <c r="K89" s="3"/>
-      <c r="T89" s="18"/>
+      <c r="T89" s="6"/>
       <c r="U89" s="3"/>
-      <c r="AE89" s="18"/>
-    </row>
-    <row r="90" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE89" s="6"/>
+    </row>
+    <row r="90" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A90" s="3"/>
       <c r="K90" s="3"/>
-      <c r="T90" s="18"/>
+      <c r="T90" s="6"/>
       <c r="U90" s="3"/>
-      <c r="V90" s="22" t="s">
+      <c r="V90" s="10" t="s">
         <v>4</v>
       </c>
       <c r="W90" t="s">
         <v>26</v>
       </c>
-      <c r="AE90" s="18"/>
-    </row>
-    <row r="91" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE90" s="6"/>
+    </row>
+    <row r="91" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A91" s="3"/>
       <c r="K91" s="3"/>
-      <c r="T91" s="18"/>
+      <c r="T91" s="6"/>
       <c r="U91" s="3"/>
       <c r="W91" t="s">
         <v>27</v>
       </c>
-      <c r="AE91" s="18"/>
-    </row>
-    <row r="92" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE91" s="6"/>
+    </row>
+    <row r="92" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A92" s="3"/>
       <c r="K92" s="3"/>
-      <c r="T92" s="18"/>
+      <c r="T92" s="6"/>
       <c r="U92" s="3"/>
-      <c r="V92" s="22" t="s">
+      <c r="V92" s="10" t="s">
         <v>4</v>
       </c>
       <c r="W92" t="s">
         <v>28</v>
       </c>
-      <c r="AE92" s="18"/>
-    </row>
-    <row r="93" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE92" s="6"/>
+    </row>
+    <row r="93" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A93" s="3"/>
       <c r="K93" s="3"/>
-      <c r="T93" s="18"/>
+      <c r="T93" s="6"/>
       <c r="U93" s="3"/>
-      <c r="V93" s="22" t="s">
+      <c r="V93" s="10" t="s">
         <v>4</v>
       </c>
       <c r="W93" t="s">
         <v>29</v>
       </c>
-      <c r="AE93" s="18"/>
-    </row>
-    <row r="94" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE93" s="6"/>
+    </row>
+    <row r="94" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A94" s="3"/>
       <c r="K94" s="3"/>
-      <c r="T94" s="18"/>
+      <c r="T94" s="6"/>
       <c r="U94" s="3"/>
-      <c r="AE94" s="18"/>
-    </row>
-    <row r="95" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE94" s="6"/>
+    </row>
+    <row r="95" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A95" s="3"/>
       <c r="K95" s="3"/>
-      <c r="T95" s="18"/>
+      <c r="T95" s="6"/>
       <c r="U95" s="3"/>
-      <c r="AE95" s="18"/>
-    </row>
-    <row r="96" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE95" s="6"/>
+    </row>
+    <row r="96" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A96" s="3"/>
       <c r="K96" s="3"/>
-      <c r="T96" s="18"/>
+      <c r="T96" s="6"/>
       <c r="U96" s="3"/>
-      <c r="AE96" s="18"/>
-    </row>
-    <row r="97" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE96" s="6"/>
+    </row>
+    <row r="97" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A97" s="3"/>
       <c r="K97" s="3"/>
-      <c r="T97" s="18"/>
+      <c r="T97" s="6"/>
       <c r="U97" s="3"/>
-      <c r="AE97" s="18"/>
-    </row>
-    <row r="98" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE97" s="6"/>
+    </row>
+    <row r="98" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A98" s="3"/>
       <c r="K98" s="3"/>
-      <c r="T98" s="18"/>
+      <c r="T98" s="6"/>
       <c r="U98" s="3"/>
-      <c r="AE98" s="18"/>
-    </row>
-    <row r="99" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE98" s="6"/>
+    </row>
+    <row r="99" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A99" s="3"/>
       <c r="K99" s="3"/>
-      <c r="T99" s="18"/>
+      <c r="T99" s="6"/>
       <c r="U99" s="3"/>
-      <c r="AE99" s="18"/>
-    </row>
-    <row r="100" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE99" s="6"/>
+    </row>
+    <row r="100" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A100" s="3"/>
       <c r="K100" s="3"/>
-      <c r="T100" s="18"/>
+      <c r="T100" s="6"/>
       <c r="U100" s="3"/>
-      <c r="AE100" s="18"/>
-    </row>
-    <row r="101" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE100" s="6"/>
+    </row>
+    <row r="101" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A101" s="3"/>
       <c r="K101" s="3"/>
-      <c r="T101" s="18"/>
+      <c r="T101" s="6"/>
       <c r="U101" s="3"/>
-      <c r="AE101" s="18"/>
-    </row>
-    <row r="102" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE101" s="6"/>
+    </row>
+    <row r="102" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A102" s="3"/>
       <c r="K102" s="3"/>
-      <c r="T102" s="18"/>
+      <c r="T102" s="6"/>
       <c r="U102" s="3"/>
-      <c r="AE102" s="18"/>
-    </row>
-    <row r="103" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE102" s="6"/>
+    </row>
+    <row r="103" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A103" s="3"/>
       <c r="K103" s="3"/>
-      <c r="T103" s="18"/>
+      <c r="T103" s="6"/>
       <c r="U103" s="3"/>
-      <c r="AE103" s="18"/>
-    </row>
-    <row r="104" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE103" s="6"/>
+    </row>
+    <row r="104" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A104" s="3"/>
       <c r="K104" s="3"/>
-      <c r="T104" s="18"/>
+      <c r="T104" s="6"/>
       <c r="U104" s="3"/>
-      <c r="V104" s="22" t="s">
+      <c r="V104" s="10" t="s">
         <v>4</v>
       </c>
       <c r="W104" t="s">
         <v>30</v>
       </c>
-      <c r="AE104" s="18"/>
-    </row>
-    <row r="105" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE104" s="6"/>
+    </row>
+    <row r="105" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A105" s="3"/>
       <c r="K105" s="3"/>
-      <c r="T105" s="18"/>
+      <c r="T105" s="6"/>
       <c r="U105" s="3"/>
       <c r="W105" t="s">
         <v>31</v>
       </c>
-      <c r="AE105" s="18"/>
-    </row>
-    <row r="106" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE105" s="6"/>
+    </row>
+    <row r="106" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A106" s="3"/>
       <c r="K106" s="3"/>
-      <c r="T106" s="18"/>
+      <c r="T106" s="6"/>
       <c r="U106" s="3"/>
-      <c r="AE106" s="18"/>
-    </row>
-    <row r="107" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE106" s="6"/>
+    </row>
+    <row r="107" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A107" s="3"/>
       <c r="K107" s="3"/>
-      <c r="T107" s="18"/>
+      <c r="T107" s="6"/>
       <c r="U107" s="3"/>
-      <c r="AE107" s="18"/>
-    </row>
-    <row r="108" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE107" s="6"/>
+    </row>
+    <row r="108" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A108" s="3"/>
       <c r="K108" s="3"/>
-      <c r="T108" s="18"/>
+      <c r="T108" s="6"/>
       <c r="U108" s="3"/>
-      <c r="AE108" s="18"/>
-    </row>
-    <row r="109" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE108" s="6"/>
+    </row>
+    <row r="109" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A109" s="3"/>
       <c r="K109" s="3"/>
-      <c r="T109" s="18"/>
+      <c r="T109" s="6"/>
       <c r="U109" s="3"/>
-      <c r="AE109" s="18"/>
-    </row>
-    <row r="110" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE109" s="6"/>
+    </row>
+    <row r="110" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A110" s="3"/>
       <c r="K110" s="3"/>
-      <c r="T110" s="18"/>
+      <c r="T110" s="6"/>
       <c r="U110" s="3"/>
-      <c r="AE110" s="18"/>
-    </row>
-    <row r="111" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE110" s="6"/>
+    </row>
+    <row r="111" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A111" s="3"/>
       <c r="K111" s="3"/>
-      <c r="T111" s="18"/>
+      <c r="T111" s="6"/>
       <c r="U111" s="3"/>
-      <c r="AE111" s="18"/>
-    </row>
-    <row r="112" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE111" s="6"/>
+    </row>
+    <row r="112" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A112" s="3"/>
       <c r="K112" s="3"/>
-      <c r="T112" s="18"/>
+      <c r="T112" s="6"/>
       <c r="U112" s="3"/>
-      <c r="AE112" s="18"/>
-    </row>
-    <row r="113" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE112" s="6"/>
+    </row>
+    <row r="113" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A113" s="3"/>
       <c r="K113" s="3"/>
-      <c r="T113" s="18"/>
+      <c r="T113" s="6"/>
       <c r="U113" s="3"/>
-      <c r="AE113" s="18"/>
-    </row>
-    <row r="114" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE113" s="6"/>
+    </row>
+    <row r="114" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A114" s="3"/>
       <c r="K114" s="3"/>
-      <c r="T114" s="18"/>
+      <c r="T114" s="6"/>
       <c r="U114" s="3"/>
-      <c r="AE114" s="18"/>
-    </row>
-    <row r="115" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE114" s="6"/>
+    </row>
+    <row r="115" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A115" s="3"/>
       <c r="K115" s="3"/>
-      <c r="T115" s="18"/>
+      <c r="T115" s="6"/>
       <c r="U115" s="3"/>
-      <c r="AE115" s="18"/>
-    </row>
-    <row r="116" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE115" s="6"/>
+    </row>
+    <row r="116" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A116" s="3"/>
       <c r="K116" s="3"/>
-      <c r="T116" s="18"/>
+      <c r="T116" s="6"/>
       <c r="U116" s="3"/>
-      <c r="AE116" s="18"/>
-    </row>
-    <row r="117" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE116" s="6"/>
+    </row>
+    <row r="117" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A117" s="3"/>
       <c r="K117" s="3"/>
-      <c r="T117" s="18"/>
+      <c r="T117" s="6"/>
       <c r="U117" s="3"/>
-      <c r="AE117" s="18"/>
-    </row>
-    <row r="118" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE117" s="6"/>
+    </row>
+    <row r="118" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A118" s="3"/>
       <c r="K118" s="3"/>
-      <c r="T118" s="18"/>
+      <c r="T118" s="6"/>
       <c r="U118" s="3"/>
-      <c r="AE118" s="18"/>
-    </row>
-    <row r="119" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE118" s="6"/>
+    </row>
+    <row r="119" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A119" s="3"/>
       <c r="K119" s="3"/>
-      <c r="T119" s="18"/>
+      <c r="T119" s="6"/>
       <c r="U119" s="3"/>
-      <c r="AE119" s="18"/>
-    </row>
-    <row r="120" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE119" s="6"/>
+    </row>
+    <row r="120" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A120" s="3"/>
       <c r="K120" s="3"/>
-      <c r="T120" s="18"/>
+      <c r="T120" s="6"/>
       <c r="U120" s="3"/>
-      <c r="AE120" s="18"/>
-    </row>
-    <row r="121" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE120" s="6"/>
+    </row>
+    <row r="121" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A121" s="3"/>
       <c r="K121" s="3"/>
-      <c r="T121" s="18"/>
+      <c r="T121" s="6"/>
       <c r="U121" s="3"/>
-      <c r="AE121" s="18"/>
-    </row>
-    <row r="122" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE121" s="6"/>
+    </row>
+    <row r="122" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A122" s="3"/>
       <c r="K122" s="3"/>
-      <c r="T122" s="18"/>
+      <c r="T122" s="6"/>
       <c r="U122" s="3"/>
-      <c r="AE122" s="18"/>
-    </row>
-    <row r="123" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE122" s="6"/>
+    </row>
+    <row r="123" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A123" s="3"/>
       <c r="K123" s="3"/>
-      <c r="T123" s="18"/>
+      <c r="T123" s="6"/>
       <c r="U123" s="3"/>
-      <c r="AE123" s="18"/>
-    </row>
-    <row r="124" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE123" s="6"/>
+    </row>
+    <row r="124" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A124" s="3"/>
       <c r="K124" s="3"/>
-      <c r="T124" s="18"/>
+      <c r="T124" s="6"/>
       <c r="U124" s="3"/>
-      <c r="AE124" s="18"/>
-    </row>
-    <row r="125" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE124" s="6"/>
+    </row>
+    <row r="125" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A125" s="3"/>
       <c r="K125" s="3"/>
-      <c r="T125" s="18"/>
+      <c r="T125" s="6"/>
       <c r="U125" s="3"/>
-      <c r="AE125" s="18"/>
-    </row>
-    <row r="126" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE125" s="6"/>
+    </row>
+    <row r="126" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A126" s="3"/>
       <c r="K126" s="3"/>
-      <c r="T126" s="18"/>
+      <c r="T126" s="6"/>
       <c r="U126" s="3"/>
-      <c r="AE126" s="18"/>
-    </row>
-    <row r="127" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE126" s="6"/>
+    </row>
+    <row r="127" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A127" s="3"/>
       <c r="K127" s="3"/>
-      <c r="T127" s="18"/>
+      <c r="T127" s="6"/>
       <c r="U127" s="3"/>
-      <c r="AE127" s="18"/>
-    </row>
-    <row r="128" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE127" s="6"/>
+    </row>
+    <row r="128" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A128" s="3"/>
       <c r="K128" s="3"/>
-      <c r="T128" s="18"/>
+      <c r="T128" s="6"/>
       <c r="U128" s="3"/>
-      <c r="AE128" s="18"/>
-    </row>
-    <row r="129" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE128" s="6"/>
+    </row>
+    <row r="129" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A129" s="3"/>
       <c r="K129" s="3"/>
-      <c r="T129" s="18"/>
+      <c r="T129" s="6"/>
       <c r="U129" s="3"/>
-      <c r="AE129" s="18"/>
-    </row>
-    <row r="130" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE129" s="6"/>
+    </row>
+    <row r="130" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A130" s="3"/>
       <c r="K130" s="3"/>
-      <c r="T130" s="18"/>
+      <c r="T130" s="6"/>
       <c r="U130" s="3"/>
-      <c r="AE130" s="18"/>
-    </row>
-    <row r="131" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE130" s="6"/>
+    </row>
+    <row r="131" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A131" s="3"/>
       <c r="K131" s="3"/>
-      <c r="T131" s="18"/>
+      <c r="T131" s="6"/>
       <c r="U131" s="3"/>
-      <c r="AE131" s="18"/>
-    </row>
-    <row r="132" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE131" s="6"/>
+    </row>
+    <row r="132" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A132" s="3"/>
       <c r="K132" s="3"/>
-      <c r="T132" s="18"/>
+      <c r="T132" s="6"/>
       <c r="U132" s="3"/>
-      <c r="AE132" s="18"/>
-    </row>
-    <row r="133" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE132" s="6"/>
+    </row>
+    <row r="133" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A133" s="3"/>
       <c r="K133" s="3"/>
-      <c r="T133" s="18"/>
+      <c r="T133" s="6"/>
       <c r="U133" s="3"/>
-      <c r="W133" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="AE133" s="18"/>
-    </row>
-    <row r="134" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE133" s="6"/>
+    </row>
+    <row r="134" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A134" s="3"/>
       <c r="K134" s="3"/>
-      <c r="T134" s="18"/>
+      <c r="T134" s="6"/>
       <c r="U134" s="3"/>
-      <c r="AE134" s="18"/>
-    </row>
-    <row r="135" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE134" s="6"/>
+    </row>
+    <row r="135" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A135" s="3"/>
       <c r="K135" s="3"/>
-      <c r="T135" s="18"/>
+      <c r="T135" s="6"/>
       <c r="U135" s="3"/>
-      <c r="AE135" s="18"/>
-    </row>
-    <row r="136" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE135" s="6"/>
+    </row>
+    <row r="136" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A136" s="3"/>
       <c r="K136" s="3"/>
-      <c r="T136" s="18"/>
+      <c r="T136" s="6"/>
       <c r="U136" s="3"/>
-      <c r="AE136" s="18"/>
-    </row>
-    <row r="137" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE136" s="6"/>
+    </row>
+    <row r="137" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A137" s="3"/>
       <c r="K137" s="3"/>
-      <c r="T137" s="18"/>
+      <c r="T137" s="6"/>
       <c r="U137" s="3"/>
-      <c r="AE137" s="18"/>
-    </row>
-    <row r="138" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE137" s="6"/>
+    </row>
+    <row r="138" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A138" s="3"/>
       <c r="K138" s="3"/>
-      <c r="T138" s="18"/>
+      <c r="T138" s="6"/>
       <c r="U138" s="3"/>
-      <c r="AE138" s="18"/>
-    </row>
-    <row r="139" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE138" s="6"/>
+    </row>
+    <row r="139" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A139" s="3"/>
       <c r="K139" s="3"/>
-      <c r="T139" s="18"/>
+      <c r="T139" s="6"/>
       <c r="U139" s="3"/>
-      <c r="AE139" s="18"/>
-    </row>
-    <row r="140" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE139" s="6"/>
+    </row>
+    <row r="140" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A140" s="3"/>
       <c r="K140" s="3"/>
-      <c r="T140" s="18"/>
+      <c r="T140" s="6"/>
       <c r="U140" s="3"/>
-      <c r="AE140" s="18"/>
-    </row>
-    <row r="141" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE140" s="6"/>
+    </row>
+    <row r="141" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A141" s="3"/>
       <c r="K141" s="3"/>
-      <c r="T141" s="18"/>
+      <c r="T141" s="6"/>
       <c r="U141" s="3"/>
-      <c r="AE141" s="18"/>
-    </row>
-    <row r="142" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE141" s="6"/>
+    </row>
+    <row r="142" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A142" s="3"/>
       <c r="K142" s="3"/>
-      <c r="T142" s="18"/>
+      <c r="T142" s="6"/>
       <c r="U142" s="3"/>
-      <c r="AE142" s="18"/>
-    </row>
-    <row r="143" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE142" s="6"/>
+    </row>
+    <row r="143" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A143" s="3"/>
       <c r="K143" s="3"/>
-      <c r="T143" s="18"/>
+      <c r="T143" s="6"/>
       <c r="U143" s="3"/>
-      <c r="AE143" s="18"/>
-    </row>
-    <row r="144" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="W143" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE143" s="6"/>
+    </row>
+    <row r="144" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A144" s="3"/>
       <c r="K144" s="3"/>
-      <c r="T144" s="18"/>
+      <c r="T144" s="6"/>
       <c r="U144" s="3"/>
-      <c r="V144" s="29"/>
-      <c r="W144" s="20"/>
-      <c r="AE144" s="18"/>
-    </row>
-    <row r="145" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE144" s="6"/>
+    </row>
+    <row r="145" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A145" s="3"/>
       <c r="K145" s="3"/>
-      <c r="T145" s="18"/>
+      <c r="T145" s="6"/>
       <c r="U145" s="3"/>
-      <c r="AE145" s="18"/>
-    </row>
-    <row r="146" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE145" s="6"/>
+    </row>
+    <row r="146" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A146" s="3"/>
       <c r="K146" s="3"/>
-      <c r="T146" s="18"/>
+      <c r="T146" s="6"/>
       <c r="U146" s="3"/>
-      <c r="AE146" s="18"/>
-    </row>
-    <row r="147" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE146" s="6"/>
+    </row>
+    <row r="147" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A147" s="3"/>
       <c r="K147" s="3"/>
-      <c r="T147" s="18"/>
+      <c r="T147" s="6"/>
       <c r="U147" s="3"/>
-      <c r="AE147" s="18"/>
-    </row>
-    <row r="148" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE147" s="6"/>
+    </row>
+    <row r="148" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A148" s="3"/>
       <c r="K148" s="3"/>
-      <c r="T148" s="18"/>
+      <c r="T148" s="6"/>
       <c r="U148" s="3"/>
-      <c r="V148" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="W148" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z148" s="21"/>
-      <c r="AE148" s="18"/>
-    </row>
-    <row r="149" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE148" s="6"/>
+    </row>
+    <row r="149" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A149" s="3"/>
       <c r="K149" s="3"/>
-      <c r="T149" s="18"/>
+      <c r="T149" s="6"/>
       <c r="U149" s="3"/>
-      <c r="AE149" s="18"/>
-    </row>
-    <row r="150" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="V149" s="16"/>
+      <c r="W149" s="8"/>
+      <c r="AE149" s="6"/>
+    </row>
+    <row r="150" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A150" s="3"/>
       <c r="K150" s="3"/>
-      <c r="T150" s="18"/>
+      <c r="T150" s="6"/>
       <c r="U150" s="3"/>
-      <c r="V150" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="W150" t="s">
-        <v>42</v>
-      </c>
-      <c r="AE150" s="18"/>
-    </row>
-    <row r="151" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE150" s="6"/>
+    </row>
+    <row r="151" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A151" s="3"/>
       <c r="K151" s="3"/>
-      <c r="T151" s="18"/>
+      <c r="T151" s="6"/>
       <c r="U151" s="3"/>
-      <c r="V151" s="22"/>
-      <c r="AE151" s="18"/>
-    </row>
-    <row r="152" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE151" s="6"/>
+    </row>
+    <row r="152" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A152" s="3"/>
       <c r="K152" s="3"/>
-      <c r="T152" s="18"/>
+      <c r="T152" s="6"/>
       <c r="U152" s="3"/>
-      <c r="V152" t="s">
-        <v>43</v>
-      </c>
-      <c r="AE152" s="18"/>
-    </row>
-    <row r="153" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE152" s="6"/>
+    </row>
+    <row r="153" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A153" s="3"/>
       <c r="K153" s="3"/>
-      <c r="T153" s="18"/>
+      <c r="T153" s="6"/>
       <c r="U153" s="3"/>
-      <c r="AE153" s="18"/>
-    </row>
-    <row r="154" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="V153" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="W153" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z153" s="9"/>
+      <c r="AE153" s="6"/>
+    </row>
+    <row r="154" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A154" s="3"/>
       <c r="K154" s="3"/>
-      <c r="T154" s="18"/>
+      <c r="T154" s="6"/>
       <c r="U154" s="3"/>
-      <c r="V154" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="AE154" s="18"/>
-    </row>
-    <row r="155" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE154" s="6"/>
+    </row>
+    <row r="155" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A155" s="3"/>
       <c r="K155" s="3"/>
-      <c r="T155" s="18"/>
+      <c r="T155" s="6"/>
       <c r="U155" s="3"/>
-      <c r="V155" s="22" t="s">
+      <c r="V155" s="10" t="s">
         <v>4</v>
       </c>
       <c r="W155" t="s">
         <v>42</v>
       </c>
-      <c r="AE155" s="18"/>
-    </row>
-    <row r="156" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE155" s="6"/>
+    </row>
+    <row r="156" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A156" s="3"/>
       <c r="K156" s="3"/>
-      <c r="T156" s="18"/>
+      <c r="T156" s="6"/>
       <c r="U156" s="3"/>
-      <c r="AE156" s="18"/>
-    </row>
-    <row r="157" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="V156" s="10"/>
+      <c r="AE156" s="6"/>
+    </row>
+    <row r="157" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A157" s="3"/>
       <c r="K157" s="3"/>
-      <c r="T157" s="18"/>
+      <c r="T157" s="6"/>
       <c r="U157" s="3"/>
-      <c r="AE157" s="18"/>
-    </row>
-    <row r="158" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="V157" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE157" s="6"/>
+    </row>
+    <row r="158" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A158" s="3"/>
       <c r="K158" s="3"/>
-      <c r="T158" s="18"/>
+      <c r="T158" s="6"/>
       <c r="U158" s="3"/>
-      <c r="AE158" s="18"/>
-    </row>
-    <row r="159" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE158" s="6"/>
+    </row>
+    <row r="159" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A159" s="3"/>
       <c r="K159" s="3"/>
-      <c r="T159" s="18"/>
+      <c r="T159" s="6"/>
       <c r="U159" s="3"/>
-      <c r="AE159" s="18"/>
-    </row>
-    <row r="160" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="V159" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE159" s="6"/>
+    </row>
+    <row r="160" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A160" s="3"/>
       <c r="K160" s="3"/>
-      <c r="T160" s="18"/>
+      <c r="T160" s="6"/>
       <c r="U160" s="3"/>
-      <c r="V160" s="22" t="s">
+      <c r="V160" s="10" t="s">
         <v>4</v>
       </c>
       <c r="W160" t="s">
         <v>42</v>
       </c>
-      <c r="AE160" s="18"/>
-    </row>
-    <row r="161" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE160" s="6"/>
+    </row>
+    <row r="161" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A161" s="3"/>
       <c r="K161" s="3"/>
-      <c r="T161" s="18"/>
+      <c r="T161" s="6"/>
       <c r="U161" s="3"/>
-      <c r="AE161" s="18"/>
-    </row>
-    <row r="162" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE161" s="6"/>
+    </row>
+    <row r="162" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A162" s="3"/>
       <c r="K162" s="3"/>
-      <c r="T162" s="18"/>
+      <c r="T162" s="6"/>
       <c r="U162" s="3"/>
-      <c r="AE162" s="18"/>
-    </row>
-    <row r="163" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE162" s="6"/>
+    </row>
+    <row r="163" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A163" s="3"/>
       <c r="K163" s="3"/>
-      <c r="T163" s="18"/>
+      <c r="T163" s="6"/>
       <c r="U163" s="3"/>
-      <c r="AE163" s="18"/>
-    </row>
-    <row r="164" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE163" s="6"/>
+    </row>
+    <row r="164" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A164" s="3"/>
       <c r="K164" s="3"/>
-      <c r="T164" s="18"/>
+      <c r="T164" s="6"/>
       <c r="U164" s="3"/>
-      <c r="AE164" s="18"/>
-    </row>
-    <row r="165" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE164" s="6"/>
+    </row>
+    <row r="165" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A165" s="3"/>
       <c r="K165" s="3"/>
-      <c r="T165" s="18"/>
+      <c r="T165" s="6"/>
       <c r="U165" s="3"/>
-      <c r="AE165" s="18"/>
-    </row>
-    <row r="166" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="V165" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="W165" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE165" s="6"/>
+    </row>
+    <row r="166" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A166" s="3"/>
       <c r="K166" s="3"/>
-      <c r="T166" s="18"/>
+      <c r="T166" s="6"/>
       <c r="U166" s="3"/>
-      <c r="AE166" s="18"/>
-    </row>
-    <row r="167" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE166" s="6"/>
+    </row>
+    <row r="167" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A167" s="3"/>
       <c r="K167" s="3"/>
-      <c r="T167" s="18"/>
+      <c r="T167" s="6"/>
       <c r="U167" s="3"/>
-      <c r="AE167" s="18"/>
+      <c r="AE167" s="6"/>
+    </row>
+    <row r="168" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="A168" s="3"/>
+      <c r="K168" s="3"/>
+      <c r="T168" s="6"/>
+      <c r="U168" s="3"/>
+      <c r="AE168" s="6"/>
+    </row>
+    <row r="169" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="A169" s="3"/>
+      <c r="K169" s="3"/>
+      <c r="T169" s="6"/>
+      <c r="U169" s="3"/>
+      <c r="AE169" s="6"/>
+    </row>
+    <row r="170" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="A170" s="3"/>
+      <c r="K170" s="3"/>
+      <c r="T170" s="6"/>
+      <c r="U170" s="3"/>
+      <c r="AE170" s="6"/>
+    </row>
+    <row r="171" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="A171" s="3"/>
+      <c r="K171" s="3"/>
+      <c r="T171" s="6"/>
+      <c r="U171" s="3"/>
+      <c r="AE171" s="6"/>
+    </row>
+    <row r="172" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="A172" s="3"/>
+      <c r="K172" s="3"/>
+      <c r="T172" s="6"/>
+      <c r="U172" s="3"/>
+      <c r="AE172" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -13145,12 +13065,12 @@
       <selection pane="bottomLeft" activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5" defaultRowHeight="15.75" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="5" defaultRowHeight="15" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="31" width="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -13182,10 +13102,10 @@
       <c r="AC1" s="2"/>
       <c r="AD1" s="2"/>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A2" s="3"/>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -13218,79 +13138,79 @@
       <c r="AD3" s="4"/>
       <c r="AE3" s="4"/>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="A4" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="8" t="s">
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="9"/>
-      <c r="O4" s="9"/>
-      <c r="P4" s="9"/>
-      <c r="Q4" s="9"/>
-      <c r="R4" s="9"/>
-      <c r="S4" s="9"/>
-      <c r="T4" s="10"/>
-      <c r="U4" s="5" t="s">
+      <c r="L4" s="24"/>
+      <c r="M4" s="24"/>
+      <c r="N4" s="24"/>
+      <c r="O4" s="24"/>
+      <c r="P4" s="24"/>
+      <c r="Q4" s="24"/>
+      <c r="R4" s="24"/>
+      <c r="S4" s="24"/>
+      <c r="T4" s="25"/>
+      <c r="U4" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="V4" s="6"/>
-      <c r="W4" s="6"/>
-      <c r="X4" s="6"/>
-      <c r="Y4" s="6"/>
-      <c r="Z4" s="6"/>
-      <c r="AA4" s="6"/>
-      <c r="AB4" s="6"/>
-      <c r="AC4" s="6"/>
-      <c r="AD4" s="6"/>
-      <c r="AE4" s="7"/>
-    </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A5" s="11"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="15"/>
-      <c r="N5" s="15"/>
-      <c r="O5" s="15"/>
-      <c r="P5" s="15"/>
-      <c r="Q5" s="15"/>
-      <c r="R5" s="15"/>
-      <c r="S5" s="15"/>
-      <c r="T5" s="16"/>
-      <c r="U5" s="11"/>
-      <c r="V5" s="12"/>
-      <c r="W5" s="12"/>
-      <c r="X5" s="12"/>
-      <c r="Y5" s="12"/>
-      <c r="Z5" s="12"/>
-      <c r="AA5" s="12"/>
-      <c r="AB5" s="12"/>
-      <c r="AC5" s="12"/>
-      <c r="AD5" s="12"/>
-      <c r="AE5" s="13"/>
-    </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="V4" s="18"/>
+      <c r="W4" s="18"/>
+      <c r="X4" s="18"/>
+      <c r="Y4" s="18"/>
+      <c r="Z4" s="18"/>
+      <c r="AA4" s="18"/>
+      <c r="AB4" s="18"/>
+      <c r="AC4" s="18"/>
+      <c r="AD4" s="18"/>
+      <c r="AE4" s="19"/>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="A5" s="20"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="27"/>
+      <c r="M5" s="27"/>
+      <c r="N5" s="27"/>
+      <c r="O5" s="27"/>
+      <c r="P5" s="27"/>
+      <c r="Q5" s="27"/>
+      <c r="R5" s="27"/>
+      <c r="S5" s="27"/>
+      <c r="T5" s="28"/>
+      <c r="U5" s="20"/>
+      <c r="V5" s="21"/>
+      <c r="W5" s="21"/>
+      <c r="X5" s="21"/>
+      <c r="Y5" s="21"/>
+      <c r="Z5" s="21"/>
+      <c r="AA5" s="21"/>
+      <c r="AB5" s="21"/>
+      <c r="AC5" s="21"/>
+      <c r="AD5" s="21"/>
+      <c r="AE5" s="22"/>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A6" s="1"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -13310,7 +13230,7 @@
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
       <c r="S6" s="2"/>
-      <c r="T6" s="17"/>
+      <c r="T6" s="5"/>
       <c r="U6" s="1"/>
       <c r="V6" s="2"/>
       <c r="W6" s="2"/>
@@ -13321,1170 +13241,1170 @@
       <c r="AB6" s="2"/>
       <c r="AC6" s="2"/>
       <c r="AD6" s="2"/>
-      <c r="AE6" s="17"/>
-    </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE6" s="5"/>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A7" s="3"/>
       <c r="K7" s="3"/>
-      <c r="T7" s="18"/>
+      <c r="T7" s="6"/>
       <c r="U7" s="3"/>
-      <c r="V7" s="19"/>
-      <c r="AE7" s="18"/>
-    </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="V7" s="7"/>
+      <c r="AE7" s="6"/>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A8" s="3"/>
       <c r="K8" s="3"/>
-      <c r="T8" s="18"/>
+      <c r="T8" s="6"/>
       <c r="U8" s="3"/>
-      <c r="AE8" s="18"/>
-    </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE8" s="6"/>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A9" s="3"/>
       <c r="K9" s="3"/>
-      <c r="T9" s="18"/>
+      <c r="T9" s="6"/>
       <c r="U9" s="3"/>
-      <c r="AE9" s="18"/>
-    </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE9" s="6"/>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A10" s="3"/>
       <c r="K10" s="3"/>
-      <c r="T10" s="18"/>
+      <c r="T10" s="6"/>
       <c r="U10" s="3"/>
-      <c r="AE10" s="18"/>
-    </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE10" s="6"/>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A11" s="3"/>
       <c r="K11" s="3"/>
-      <c r="T11" s="18"/>
+      <c r="T11" s="6"/>
       <c r="U11" s="3"/>
-      <c r="V11" s="19" t="s">
+      <c r="V11" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="W11" s="20" t="s">
+      <c r="W11" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="AA11" s="21"/>
-      <c r="AE11" s="18"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AA11" s="9"/>
+      <c r="AE11" s="6"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A12" s="3"/>
       <c r="K12" s="3"/>
-      <c r="T12" s="18"/>
+      <c r="T12" s="6"/>
       <c r="U12" s="3"/>
-      <c r="AE12" s="18"/>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE12" s="6"/>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A13" s="3"/>
       <c r="K13" s="3"/>
-      <c r="T13" s="18"/>
+      <c r="T13" s="6"/>
       <c r="U13" s="3"/>
-      <c r="V13" s="22" t="s">
+      <c r="V13" s="10" t="s">
         <v>4</v>
       </c>
       <c r="W13" t="s">
         <v>5</v>
       </c>
-      <c r="AE13" s="18"/>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE13" s="6"/>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A14" s="3"/>
       <c r="K14" s="3"/>
-      <c r="T14" s="18"/>
+      <c r="T14" s="6"/>
       <c r="U14" s="3"/>
-      <c r="V14" s="22"/>
+      <c r="V14" s="10"/>
       <c r="W14" t="s">
         <v>6</v>
       </c>
-      <c r="AE14" s="18"/>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE14" s="6"/>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A15" s="3"/>
       <c r="K15" s="3"/>
-      <c r="T15" s="18"/>
+      <c r="T15" s="6"/>
       <c r="U15" s="3"/>
-      <c r="V15" s="22"/>
-      <c r="AE15" s="18"/>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="V15" s="10"/>
+      <c r="AE15" s="6"/>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A16" s="3"/>
       <c r="K16" s="3"/>
-      <c r="T16" s="18"/>
+      <c r="T16" s="6"/>
       <c r="U16" s="3"/>
-      <c r="V16" s="19" t="s">
+      <c r="V16" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="W16" s="20" t="s">
+      <c r="W16" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="AE16" s="18"/>
-    </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE16" s="6"/>
+    </row>
+    <row r="17" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A17" s="3"/>
       <c r="K17" s="3"/>
-      <c r="T17" s="18"/>
+      <c r="T17" s="6"/>
       <c r="U17" s="3"/>
-      <c r="AE17" s="18"/>
-    </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE17" s="6"/>
+    </row>
+    <row r="18" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A18" s="3"/>
       <c r="K18" s="3"/>
-      <c r="T18" s="18"/>
+      <c r="T18" s="6"/>
       <c r="U18" s="3"/>
-      <c r="V18" s="22" t="s">
+      <c r="V18" s="10" t="s">
         <v>4</v>
       </c>
       <c r="W18" t="s">
         <v>9</v>
       </c>
-      <c r="AE18" s="18"/>
-    </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE18" s="6"/>
+    </row>
+    <row r="19" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A19" s="3"/>
       <c r="K19" s="3"/>
-      <c r="T19" s="18"/>
+      <c r="T19" s="6"/>
       <c r="U19" s="3"/>
-      <c r="V19" s="22" t="s">
+      <c r="V19" s="10" t="s">
         <v>4</v>
       </c>
       <c r="W19" t="s">
         <v>10</v>
       </c>
-      <c r="AE19" s="18"/>
-    </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE19" s="6"/>
+    </row>
+    <row r="20" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A20" s="3"/>
       <c r="K20" s="3"/>
-      <c r="T20" s="18"/>
+      <c r="T20" s="6"/>
       <c r="U20" s="3"/>
       <c r="W20" t="s">
         <v>11</v>
       </c>
-      <c r="AE20" s="18"/>
-    </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE20" s="6"/>
+    </row>
+    <row r="21" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A21" s="3"/>
       <c r="K21" s="3"/>
-      <c r="T21" s="18"/>
+      <c r="T21" s="6"/>
       <c r="U21" s="3"/>
-      <c r="V21" s="22" t="s">
+      <c r="V21" s="10" t="s">
         <v>4</v>
       </c>
       <c r="W21" t="s">
         <v>12</v>
       </c>
-      <c r="AE21" s="18"/>
-    </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE21" s="6"/>
+    </row>
+    <row r="22" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A22" s="3"/>
       <c r="K22" s="3"/>
-      <c r="T22" s="18"/>
+      <c r="T22" s="6"/>
       <c r="U22" s="3"/>
-      <c r="V22" s="22" t="s">
+      <c r="V22" s="10" t="s">
         <v>4</v>
       </c>
       <c r="W22" t="s">
         <v>13</v>
       </c>
-      <c r="AE22" s="18"/>
-    </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE22" s="6"/>
+    </row>
+    <row r="23" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A23" s="3"/>
       <c r="K23" s="3"/>
-      <c r="T23" s="18"/>
+      <c r="T23" s="6"/>
       <c r="U23" s="3"/>
-      <c r="V23" s="22" t="s">
+      <c r="V23" s="10" t="s">
         <v>4</v>
       </c>
       <c r="W23" t="s">
         <v>14</v>
       </c>
-      <c r="AE23" s="18"/>
-    </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE23" s="6"/>
+    </row>
+    <row r="24" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A24" s="3"/>
       <c r="K24" s="3"/>
-      <c r="T24" s="18"/>
+      <c r="T24" s="6"/>
       <c r="U24" s="3"/>
-      <c r="V24" s="22" t="s">
+      <c r="V24" s="10" t="s">
         <v>4</v>
       </c>
       <c r="W24" t="s">
         <v>15</v>
       </c>
-      <c r="AE24" s="18"/>
-    </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE24" s="6"/>
+    </row>
+    <row r="25" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A25" s="3"/>
       <c r="K25" s="3"/>
-      <c r="T25" s="18"/>
+      <c r="T25" s="6"/>
       <c r="U25" s="3"/>
-      <c r="V25" s="22" t="s">
+      <c r="V25" s="10" t="s">
         <v>4</v>
       </c>
       <c r="W25" t="s">
         <v>16</v>
       </c>
-      <c r="AE25" s="18"/>
-    </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE25" s="6"/>
+    </row>
+    <row r="26" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A26" s="3"/>
       <c r="K26" s="3"/>
-      <c r="T26" s="18"/>
+      <c r="T26" s="6"/>
       <c r="U26" s="3"/>
-      <c r="V26" s="22"/>
-      <c r="AE26" s="18"/>
-    </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="V26" s="10"/>
+      <c r="AE26" s="6"/>
+    </row>
+    <row r="27" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A27" s="3"/>
       <c r="K27" s="3"/>
-      <c r="T27" s="18"/>
+      <c r="T27" s="6"/>
       <c r="U27" s="3"/>
-      <c r="AE27" s="18"/>
-    </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE27" s="6"/>
+    </row>
+    <row r="28" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A28" s="3"/>
       <c r="K28" s="3"/>
-      <c r="T28" s="18"/>
+      <c r="T28" s="6"/>
       <c r="U28" s="3"/>
-      <c r="AE28" s="18"/>
-    </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE28" s="6"/>
+    </row>
+    <row r="29" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A29" s="3"/>
       <c r="K29" s="3"/>
-      <c r="T29" s="18"/>
+      <c r="T29" s="6"/>
       <c r="U29" s="3"/>
-      <c r="AE29" s="18"/>
-    </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE29" s="6"/>
+    </row>
+    <row r="30" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A30" s="3"/>
       <c r="K30" s="3"/>
-      <c r="T30" s="18"/>
+      <c r="T30" s="6"/>
       <c r="U30" s="3"/>
-      <c r="AE30" s="18"/>
-    </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE30" s="6"/>
+    </row>
+    <row r="31" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A31" s="3"/>
       <c r="K31" s="3"/>
-      <c r="T31" s="18"/>
+      <c r="T31" s="6"/>
       <c r="U31" s="3"/>
-      <c r="V31" s="19" t="s">
+      <c r="V31" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="W31" s="20" t="s">
+      <c r="W31" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="AA31" s="21"/>
-      <c r="AE31" s="18"/>
-    </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AA31" s="9"/>
+      <c r="AE31" s="6"/>
+    </row>
+    <row r="32" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A32" s="3"/>
       <c r="K32" s="3"/>
-      <c r="T32" s="18"/>
+      <c r="T32" s="6"/>
       <c r="U32" s="3"/>
-      <c r="AE32" s="18"/>
-    </row>
-    <row r="33" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE32" s="6"/>
+    </row>
+    <row r="33" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A33" s="3"/>
       <c r="K33" s="3"/>
-      <c r="T33" s="18"/>
+      <c r="T33" s="6"/>
       <c r="U33" s="3"/>
-      <c r="V33" s="22" t="s">
+      <c r="V33" s="10" t="s">
         <v>4</v>
       </c>
       <c r="W33" t="s">
         <v>19</v>
       </c>
-      <c r="AE33" s="18"/>
-    </row>
-    <row r="34" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE33" s="6"/>
+    </row>
+    <row r="34" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A34" s="3"/>
       <c r="K34" s="3"/>
-      <c r="T34" s="18"/>
+      <c r="T34" s="6"/>
       <c r="U34" s="3"/>
-      <c r="V34" s="22" t="s">
+      <c r="V34" s="10" t="s">
         <v>4</v>
       </c>
       <c r="W34" t="s">
         <v>20</v>
       </c>
-      <c r="AE34" s="18"/>
-    </row>
-    <row r="35" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE34" s="6"/>
+    </row>
+    <row r="35" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A35" s="3"/>
       <c r="K35" s="3"/>
-      <c r="T35" s="18"/>
+      <c r="T35" s="6"/>
       <c r="U35" s="3"/>
-      <c r="AE35" s="18"/>
-    </row>
-    <row r="36" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE35" s="6"/>
+    </row>
+    <row r="36" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A36" s="3"/>
       <c r="K36" s="3"/>
-      <c r="T36" s="18"/>
+      <c r="T36" s="6"/>
       <c r="U36" s="3"/>
-      <c r="AE36" s="18"/>
-    </row>
-    <row r="37" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE36" s="6"/>
+    </row>
+    <row r="37" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A37" s="3"/>
       <c r="K37" s="3"/>
-      <c r="T37" s="18"/>
+      <c r="T37" s="6"/>
       <c r="U37" s="3"/>
-      <c r="AE37" s="18"/>
-    </row>
-    <row r="38" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A38" s="23"/>
-      <c r="B38" s="24"/>
-      <c r="C38" s="24"/>
-      <c r="D38" s="24"/>
-      <c r="E38" s="24"/>
-      <c r="F38" s="24"/>
-      <c r="G38" s="24"/>
-      <c r="H38" s="24"/>
-      <c r="I38" s="24"/>
-      <c r="J38" s="24"/>
-      <c r="K38" s="23"/>
-      <c r="L38" s="24"/>
-      <c r="M38" s="24"/>
-      <c r="N38" s="24"/>
-      <c r="O38" s="24"/>
-      <c r="P38" s="24"/>
-      <c r="Q38" s="24"/>
-      <c r="R38" s="24"/>
-      <c r="S38" s="24"/>
-      <c r="T38" s="25"/>
-      <c r="U38" s="23"/>
-      <c r="V38" s="24"/>
-      <c r="W38" s="24"/>
-      <c r="X38" s="24"/>
-      <c r="Y38" s="24"/>
-      <c r="Z38" s="24"/>
-      <c r="AA38" s="24"/>
-      <c r="AB38" s="24"/>
-      <c r="AC38" s="24"/>
-      <c r="AD38" s="24"/>
-      <c r="AE38" s="25"/>
-    </row>
-    <row r="39" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE37" s="6"/>
+    </row>
+    <row r="38" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="A38" s="11"/>
+      <c r="B38" s="12"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="12"/>
+      <c r="H38" s="12"/>
+      <c r="I38" s="12"/>
+      <c r="J38" s="12"/>
+      <c r="K38" s="11"/>
+      <c r="L38" s="12"/>
+      <c r="M38" s="12"/>
+      <c r="N38" s="12"/>
+      <c r="O38" s="12"/>
+      <c r="P38" s="12"/>
+      <c r="Q38" s="12"/>
+      <c r="R38" s="12"/>
+      <c r="S38" s="12"/>
+      <c r="T38" s="13"/>
+      <c r="U38" s="11"/>
+      <c r="V38" s="12"/>
+      <c r="W38" s="12"/>
+      <c r="X38" s="12"/>
+      <c r="Y38" s="12"/>
+      <c r="Z38" s="12"/>
+      <c r="AA38" s="12"/>
+      <c r="AB38" s="12"/>
+      <c r="AC38" s="12"/>
+      <c r="AD38" s="12"/>
+      <c r="AE38" s="13"/>
+    </row>
+    <row r="39" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A39" s="3"/>
       <c r="K39" s="3"/>
-      <c r="T39" s="18"/>
+      <c r="T39" s="6"/>
       <c r="U39" s="3"/>
-      <c r="AE39" s="18"/>
-    </row>
-    <row r="40" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE39" s="6"/>
+    </row>
+    <row r="40" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A40" s="3"/>
       <c r="K40" s="3"/>
-      <c r="T40" s="18"/>
+      <c r="T40" s="6"/>
       <c r="U40" s="3"/>
-      <c r="AE40" s="18"/>
-    </row>
-    <row r="41" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE40" s="6"/>
+    </row>
+    <row r="41" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A41" s="3"/>
       <c r="K41" s="3"/>
-      <c r="T41" s="18"/>
+      <c r="T41" s="6"/>
       <c r="U41" s="3"/>
-      <c r="AE41" s="18"/>
-    </row>
-    <row r="42" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE41" s="6"/>
+    </row>
+    <row r="42" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A42" s="3"/>
       <c r="K42" s="3"/>
-      <c r="T42" s="18"/>
+      <c r="T42" s="6"/>
       <c r="U42" s="3"/>
-      <c r="AE42" s="18"/>
-    </row>
-    <row r="43" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE42" s="6"/>
+    </row>
+    <row r="43" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A43" s="3"/>
       <c r="K43" s="3"/>
-      <c r="T43" s="18"/>
+      <c r="T43" s="6"/>
       <c r="U43" s="3"/>
-      <c r="AE43" s="18"/>
-    </row>
-    <row r="44" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE43" s="6"/>
+    </row>
+    <row r="44" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A44" s="3"/>
       <c r="K44" s="3"/>
-      <c r="T44" s="18"/>
+      <c r="T44" s="6"/>
       <c r="U44" s="3"/>
-      <c r="V44" s="19" t="s">
+      <c r="V44" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="W44" s="20" t="s">
+      <c r="W44" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="AA44" s="21"/>
-      <c r="AE44" s="18"/>
-    </row>
-    <row r="45" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AA44" s="9"/>
+      <c r="AE44" s="6"/>
+    </row>
+    <row r="45" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A45" s="3"/>
       <c r="K45" s="3"/>
-      <c r="T45" s="18"/>
+      <c r="T45" s="6"/>
       <c r="U45" s="3"/>
-      <c r="AE45" s="18"/>
-    </row>
-    <row r="46" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE45" s="6"/>
+    </row>
+    <row r="46" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A46" s="3"/>
       <c r="K46" s="3"/>
-      <c r="T46" s="18"/>
+      <c r="T46" s="6"/>
       <c r="U46" s="3"/>
-      <c r="V46" s="22" t="s">
+      <c r="V46" s="10" t="s">
         <v>4</v>
       </c>
       <c r="W46" t="s">
         <v>5</v>
       </c>
-      <c r="AE46" s="18"/>
-    </row>
-    <row r="47" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE46" s="6"/>
+    </row>
+    <row r="47" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A47" s="3"/>
       <c r="K47" s="3"/>
-      <c r="T47" s="18"/>
+      <c r="T47" s="6"/>
       <c r="U47" s="3"/>
-      <c r="V47" s="22"/>
+      <c r="V47" s="10"/>
       <c r="W47" t="s">
         <v>6</v>
       </c>
-      <c r="AE47" s="18"/>
-    </row>
-    <row r="48" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE47" s="6"/>
+    </row>
+    <row r="48" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A48" s="3"/>
       <c r="K48" s="3"/>
-      <c r="T48" s="18"/>
+      <c r="T48" s="6"/>
       <c r="U48" s="3"/>
-      <c r="V48" s="22"/>
-      <c r="AE48" s="18"/>
-    </row>
-    <row r="49" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="V48" s="10"/>
+      <c r="AE48" s="6"/>
+    </row>
+    <row r="49" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A49" s="3"/>
       <c r="K49" s="3"/>
-      <c r="T49" s="18"/>
+      <c r="T49" s="6"/>
       <c r="U49" s="3"/>
-      <c r="V49" s="19" t="s">
+      <c r="V49" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="W49" s="20" t="s">
+      <c r="W49" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="AE49" s="18"/>
-    </row>
-    <row r="50" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE49" s="6"/>
+    </row>
+    <row r="50" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A50" s="3"/>
       <c r="K50" s="3"/>
-      <c r="T50" s="18"/>
+      <c r="T50" s="6"/>
       <c r="U50" s="3"/>
-      <c r="AE50" s="18"/>
-    </row>
-    <row r="51" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE50" s="6"/>
+    </row>
+    <row r="51" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A51" s="3"/>
       <c r="K51" s="3"/>
-      <c r="T51" s="18"/>
+      <c r="T51" s="6"/>
       <c r="U51" s="3"/>
-      <c r="V51" s="22" t="s">
+      <c r="V51" s="10" t="s">
         <v>4</v>
       </c>
       <c r="W51" t="s">
         <v>9</v>
       </c>
-      <c r="AE51" s="18"/>
-    </row>
-    <row r="52" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE51" s="6"/>
+    </row>
+    <row r="52" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A52" s="3"/>
       <c r="K52" s="3"/>
-      <c r="T52" s="18"/>
+      <c r="T52" s="6"/>
       <c r="U52" s="3"/>
-      <c r="V52" s="22" t="s">
+      <c r="V52" s="10" t="s">
         <v>4</v>
       </c>
       <c r="W52" t="s">
         <v>10</v>
       </c>
-      <c r="AE52" s="18"/>
-    </row>
-    <row r="53" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE52" s="6"/>
+    </row>
+    <row r="53" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A53" s="3"/>
       <c r="K53" s="3"/>
-      <c r="T53" s="18"/>
+      <c r="T53" s="6"/>
       <c r="U53" s="3"/>
       <c r="W53" t="s">
         <v>11</v>
       </c>
-      <c r="AE53" s="18"/>
-    </row>
-    <row r="54" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE53" s="6"/>
+    </row>
+    <row r="54" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A54" s="3"/>
       <c r="K54" s="3"/>
-      <c r="T54" s="18"/>
+      <c r="T54" s="6"/>
       <c r="U54" s="3"/>
-      <c r="V54" s="22" t="s">
+      <c r="V54" s="10" t="s">
         <v>4</v>
       </c>
       <c r="W54" t="s">
         <v>12</v>
       </c>
-      <c r="AE54" s="18"/>
-    </row>
-    <row r="55" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE54" s="6"/>
+    </row>
+    <row r="55" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A55" s="3"/>
       <c r="K55" s="3"/>
-      <c r="T55" s="18"/>
+      <c r="T55" s="6"/>
       <c r="U55" s="3"/>
-      <c r="V55" s="22" t="s">
+      <c r="V55" s="10" t="s">
         <v>4</v>
       </c>
       <c r="W55" t="s">
         <v>13</v>
       </c>
-      <c r="AE55" s="18"/>
-    </row>
-    <row r="56" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE55" s="6"/>
+    </row>
+    <row r="56" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A56" s="3"/>
       <c r="K56" s="3"/>
-      <c r="T56" s="18"/>
+      <c r="T56" s="6"/>
       <c r="U56" s="3"/>
-      <c r="V56" s="22" t="s">
+      <c r="V56" s="10" t="s">
         <v>4</v>
       </c>
       <c r="W56" t="s">
         <v>14</v>
       </c>
-      <c r="AE56" s="18"/>
-    </row>
-    <row r="57" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE56" s="6"/>
+    </row>
+    <row r="57" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A57" s="3"/>
       <c r="K57" s="3"/>
-      <c r="T57" s="18"/>
+      <c r="T57" s="6"/>
       <c r="U57" s="3"/>
-      <c r="V57" s="22" t="s">
+      <c r="V57" s="10" t="s">
         <v>4</v>
       </c>
       <c r="W57" t="s">
         <v>15</v>
       </c>
-      <c r="AE57" s="18"/>
-    </row>
-    <row r="58" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE57" s="6"/>
+    </row>
+    <row r="58" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A58" s="3"/>
       <c r="K58" s="3"/>
-      <c r="T58" s="18"/>
+      <c r="T58" s="6"/>
       <c r="U58" s="3"/>
-      <c r="V58" s="22" t="s">
+      <c r="V58" s="10" t="s">
         <v>4</v>
       </c>
       <c r="W58" t="s">
         <v>16</v>
       </c>
-      <c r="AE58" s="18"/>
-    </row>
-    <row r="59" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE58" s="6"/>
+    </row>
+    <row r="59" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A59" s="3"/>
       <c r="K59" s="3"/>
-      <c r="T59" s="18"/>
+      <c r="T59" s="6"/>
       <c r="U59" s="3"/>
-      <c r="V59" s="22"/>
-      <c r="AE59" s="18"/>
-    </row>
-    <row r="60" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="V59" s="10"/>
+      <c r="AE59" s="6"/>
+    </row>
+    <row r="60" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A60" s="3"/>
       <c r="K60" s="3"/>
-      <c r="T60" s="18"/>
+      <c r="T60" s="6"/>
       <c r="U60" s="3"/>
-      <c r="AE60" s="18"/>
-    </row>
-    <row r="61" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE60" s="6"/>
+    </row>
+    <row r="61" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A61" s="3"/>
       <c r="K61" s="3"/>
-      <c r="T61" s="18"/>
+      <c r="T61" s="6"/>
       <c r="U61" s="3"/>
-      <c r="AE61" s="18"/>
-    </row>
-    <row r="62" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE61" s="6"/>
+    </row>
+    <row r="62" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A62" s="3"/>
       <c r="K62" s="3"/>
-      <c r="T62" s="18"/>
+      <c r="T62" s="6"/>
       <c r="U62" s="3"/>
-      <c r="AE62" s="18"/>
-    </row>
-    <row r="63" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE62" s="6"/>
+    </row>
+    <row r="63" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A63" s="3"/>
       <c r="K63" s="3"/>
-      <c r="T63" s="18"/>
+      <c r="T63" s="6"/>
       <c r="U63" s="3"/>
-      <c r="AE63" s="18"/>
-    </row>
-    <row r="64" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE63" s="6"/>
+    </row>
+    <row r="64" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A64" s="3"/>
       <c r="K64" s="3"/>
-      <c r="T64" s="18"/>
+      <c r="T64" s="6"/>
       <c r="U64" s="3"/>
-      <c r="V64" s="19" t="s">
+      <c r="V64" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="W64" s="20" t="s">
+      <c r="W64" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="AA64" s="21"/>
-      <c r="AE64" s="18"/>
-    </row>
-    <row r="65" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AA64" s="9"/>
+      <c r="AE64" s="6"/>
+    </row>
+    <row r="65" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A65" s="3"/>
       <c r="K65" s="3"/>
-      <c r="T65" s="18"/>
+      <c r="T65" s="6"/>
       <c r="U65" s="3"/>
-      <c r="AE65" s="18"/>
-    </row>
-    <row r="66" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE65" s="6"/>
+    </row>
+    <row r="66" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A66" s="3"/>
       <c r="K66" s="3"/>
-      <c r="T66" s="18"/>
+      <c r="T66" s="6"/>
       <c r="U66" s="3"/>
-      <c r="V66" s="22" t="s">
+      <c r="V66" s="10" t="s">
         <v>4</v>
       </c>
       <c r="W66" t="s">
         <v>19</v>
       </c>
-      <c r="AE66" s="18"/>
-    </row>
-    <row r="67" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE66" s="6"/>
+    </row>
+    <row r="67" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A67" s="3"/>
       <c r="K67" s="3"/>
-      <c r="T67" s="18"/>
+      <c r="T67" s="6"/>
       <c r="U67" s="3"/>
-      <c r="V67" s="22" t="s">
+      <c r="V67" s="10" t="s">
         <v>4</v>
       </c>
       <c r="W67" t="s">
         <v>20</v>
       </c>
-      <c r="AE67" s="18"/>
-    </row>
-    <row r="68" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE67" s="6"/>
+    </row>
+    <row r="68" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A68" s="3"/>
       <c r="K68" s="3"/>
-      <c r="T68" s="18"/>
+      <c r="T68" s="6"/>
       <c r="U68" s="3"/>
-      <c r="AE68" s="18"/>
-    </row>
-    <row r="69" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE68" s="6"/>
+    </row>
+    <row r="69" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A69" s="3"/>
       <c r="K69" s="3"/>
-      <c r="T69" s="18"/>
+      <c r="T69" s="6"/>
       <c r="U69" s="3"/>
-      <c r="AE69" s="18"/>
-    </row>
-    <row r="70" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE69" s="6"/>
+    </row>
+    <row r="70" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A70" s="3"/>
       <c r="K70" s="3"/>
-      <c r="T70" s="18"/>
+      <c r="T70" s="6"/>
       <c r="U70" s="3"/>
-      <c r="AE70" s="18"/>
-    </row>
-    <row r="71" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE70" s="6"/>
+    </row>
+    <row r="71" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A71" s="3"/>
       <c r="K71" s="3"/>
-      <c r="T71" s="18"/>
+      <c r="T71" s="6"/>
       <c r="U71" s="3"/>
-      <c r="AE71" s="18"/>
-    </row>
-    <row r="72" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE71" s="6"/>
+    </row>
+    <row r="72" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A72" s="3"/>
       <c r="K72" s="3"/>
-      <c r="T72" s="18"/>
+      <c r="T72" s="6"/>
       <c r="U72" s="3"/>
-      <c r="AE72" s="18"/>
-    </row>
-    <row r="73" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE72" s="6"/>
+    </row>
+    <row r="73" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A73" s="3"/>
       <c r="K73" s="3"/>
-      <c r="T73" s="18"/>
+      <c r="T73" s="6"/>
       <c r="U73" s="3"/>
-      <c r="AE73" s="18"/>
-    </row>
-    <row r="74" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE73" s="6"/>
+    </row>
+    <row r="74" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A74" s="3"/>
       <c r="K74" s="3"/>
-      <c r="T74" s="18"/>
+      <c r="T74" s="6"/>
       <c r="U74" s="3"/>
-      <c r="AE74" s="18"/>
-    </row>
-    <row r="75" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE74" s="6"/>
+    </row>
+    <row r="75" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A75" s="3"/>
       <c r="K75" s="3"/>
-      <c r="T75" s="18"/>
+      <c r="T75" s="6"/>
       <c r="U75" s="3"/>
-      <c r="AE75" s="18"/>
-    </row>
-    <row r="76" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE75" s="6"/>
+    </row>
+    <row r="76" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A76" s="3"/>
       <c r="K76" s="3"/>
-      <c r="T76" s="18"/>
+      <c r="T76" s="6"/>
       <c r="U76" s="3"/>
-      <c r="AA76" s="21"/>
-      <c r="AE76" s="18"/>
-    </row>
-    <row r="77" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AA76" s="9"/>
+      <c r="AE76" s="6"/>
+    </row>
+    <row r="77" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A77" s="3"/>
       <c r="K77" s="3"/>
-      <c r="T77" s="18"/>
+      <c r="T77" s="6"/>
       <c r="U77" s="3"/>
-      <c r="V77" s="19" t="s">
+      <c r="V77" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="W77" s="20" t="s">
+      <c r="W77" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="AE77" s="18"/>
-    </row>
-    <row r="78" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE77" s="6"/>
+    </row>
+    <row r="78" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A78" s="3"/>
       <c r="K78" s="3"/>
-      <c r="T78" s="18"/>
+      <c r="T78" s="6"/>
       <c r="U78" s="3"/>
-      <c r="AE78" s="18"/>
-    </row>
-    <row r="79" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE78" s="6"/>
+    </row>
+    <row r="79" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A79" s="3"/>
       <c r="K79" s="3"/>
-      <c r="T79" s="18"/>
+      <c r="T79" s="6"/>
       <c r="U79" s="3"/>
-      <c r="V79" s="22" t="s">
+      <c r="V79" s="10" t="s">
         <v>4</v>
       </c>
       <c r="W79" t="s">
         <v>22</v>
       </c>
-      <c r="AE79" s="18"/>
-    </row>
-    <row r="80" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE79" s="6"/>
+    </row>
+    <row r="80" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A80" s="3"/>
       <c r="K80" s="3"/>
-      <c r="T80" s="18"/>
+      <c r="T80" s="6"/>
       <c r="U80" s="3"/>
-      <c r="V80" s="22" t="s">
+      <c r="V80" s="10" t="s">
         <v>4</v>
       </c>
       <c r="W80" t="s">
         <v>23</v>
       </c>
-      <c r="AE80" s="18"/>
-    </row>
-    <row r="81" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE80" s="6"/>
+    </row>
+    <row r="81" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A81" s="3"/>
       <c r="K81" s="3"/>
-      <c r="T81" s="18"/>
+      <c r="T81" s="6"/>
       <c r="U81" s="3"/>
-      <c r="AE81" s="18"/>
-    </row>
-    <row r="82" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE81" s="6"/>
+    </row>
+    <row r="82" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A82" s="3"/>
       <c r="K82" s="3"/>
-      <c r="T82" s="18"/>
+      <c r="T82" s="6"/>
       <c r="U82" s="3"/>
-      <c r="AE82" s="18"/>
-    </row>
-    <row r="83" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE82" s="6"/>
+    </row>
+    <row r="83" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A83" s="3"/>
       <c r="K83" s="3"/>
-      <c r="T83" s="18"/>
+      <c r="T83" s="6"/>
       <c r="U83" s="3"/>
-      <c r="AE83" s="18"/>
-    </row>
-    <row r="84" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE83" s="6"/>
+    </row>
+    <row r="84" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A84" s="3"/>
       <c r="K84" s="3"/>
-      <c r="T84" s="18"/>
+      <c r="T84" s="6"/>
       <c r="U84" s="3"/>
-      <c r="AE84" s="18"/>
-    </row>
-    <row r="85" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE84" s="6"/>
+    </row>
+    <row r="85" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A85" s="3"/>
       <c r="K85" s="3"/>
-      <c r="T85" s="18"/>
+      <c r="T85" s="6"/>
       <c r="U85" s="3"/>
-      <c r="AE85" s="18"/>
-    </row>
-    <row r="86" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE85" s="6"/>
+    </row>
+    <row r="86" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A86" s="3"/>
       <c r="K86" s="3"/>
-      <c r="T86" s="18"/>
+      <c r="T86" s="6"/>
       <c r="U86" s="3"/>
-      <c r="AE86" s="18"/>
-    </row>
-    <row r="87" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE86" s="6"/>
+    </row>
+    <row r="87" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A87" s="3"/>
       <c r="K87" s="3"/>
-      <c r="T87" s="18"/>
+      <c r="T87" s="6"/>
       <c r="U87" s="3"/>
-      <c r="AE87" s="18"/>
-    </row>
-    <row r="88" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE87" s="6"/>
+    </row>
+    <row r="88" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A88" s="3"/>
       <c r="K88" s="3"/>
-      <c r="T88" s="18"/>
+      <c r="T88" s="6"/>
       <c r="U88" s="3"/>
-      <c r="V88" s="19" t="s">
+      <c r="V88" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="W88" s="20" t="s">
+      <c r="W88" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="AE88" s="18"/>
-    </row>
-    <row r="89" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE88" s="6"/>
+    </row>
+    <row r="89" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A89" s="3"/>
       <c r="K89" s="3"/>
-      <c r="T89" s="18"/>
+      <c r="T89" s="6"/>
       <c r="U89" s="3"/>
-      <c r="AE89" s="18"/>
-    </row>
-    <row r="90" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE89" s="6"/>
+    </row>
+    <row r="90" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A90" s="3"/>
       <c r="K90" s="3"/>
-      <c r="T90" s="18"/>
+      <c r="T90" s="6"/>
       <c r="U90" s="3"/>
-      <c r="V90" s="22" t="s">
+      <c r="V90" s="10" t="s">
         <v>4</v>
       </c>
       <c r="W90" t="s">
         <v>26</v>
       </c>
-      <c r="AE90" s="18"/>
-    </row>
-    <row r="91" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE90" s="6"/>
+    </row>
+    <row r="91" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A91" s="3"/>
       <c r="K91" s="3"/>
-      <c r="T91" s="18"/>
+      <c r="T91" s="6"/>
       <c r="U91" s="3"/>
       <c r="W91" t="s">
         <v>27</v>
       </c>
-      <c r="AE91" s="18"/>
-    </row>
-    <row r="92" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE91" s="6"/>
+    </row>
+    <row r="92" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A92" s="3"/>
       <c r="K92" s="3"/>
-      <c r="T92" s="18"/>
+      <c r="T92" s="6"/>
       <c r="U92" s="3"/>
-      <c r="V92" s="22" t="s">
+      <c r="V92" s="10" t="s">
         <v>4</v>
       </c>
       <c r="W92" t="s">
         <v>28</v>
       </c>
-      <c r="AE92" s="18"/>
-    </row>
-    <row r="93" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE92" s="6"/>
+    </row>
+    <row r="93" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A93" s="3"/>
       <c r="K93" s="3"/>
-      <c r="T93" s="18"/>
+      <c r="T93" s="6"/>
       <c r="U93" s="3"/>
-      <c r="V93" s="22" t="s">
+      <c r="V93" s="10" t="s">
         <v>4</v>
       </c>
       <c r="W93" t="s">
         <v>29</v>
       </c>
-      <c r="AE93" s="18"/>
-    </row>
-    <row r="94" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE93" s="6"/>
+    </row>
+    <row r="94" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A94" s="3"/>
       <c r="K94" s="3"/>
-      <c r="T94" s="18"/>
+      <c r="T94" s="6"/>
       <c r="U94" s="3"/>
-      <c r="AE94" s="18"/>
-    </row>
-    <row r="95" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE94" s="6"/>
+    </row>
+    <row r="95" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A95" s="3"/>
       <c r="K95" s="3"/>
-      <c r="T95" s="18"/>
+      <c r="T95" s="6"/>
       <c r="U95" s="3"/>
-      <c r="AE95" s="18"/>
-    </row>
-    <row r="96" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE95" s="6"/>
+    </row>
+    <row r="96" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A96" s="3"/>
       <c r="K96" s="3"/>
-      <c r="T96" s="18"/>
+      <c r="T96" s="6"/>
       <c r="U96" s="3"/>
-      <c r="AE96" s="18"/>
-    </row>
-    <row r="97" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE96" s="6"/>
+    </row>
+    <row r="97" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A97" s="3"/>
       <c r="K97" s="3"/>
-      <c r="T97" s="18"/>
+      <c r="T97" s="6"/>
       <c r="U97" s="3"/>
-      <c r="AE97" s="18"/>
-    </row>
-    <row r="98" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE97" s="6"/>
+    </row>
+    <row r="98" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A98" s="3"/>
       <c r="K98" s="3"/>
-      <c r="T98" s="18"/>
+      <c r="T98" s="6"/>
       <c r="U98" s="3"/>
-      <c r="AE98" s="18"/>
-    </row>
-    <row r="99" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE98" s="6"/>
+    </row>
+    <row r="99" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A99" s="3"/>
       <c r="K99" s="3"/>
-      <c r="T99" s="18"/>
+      <c r="T99" s="6"/>
       <c r="U99" s="3"/>
-      <c r="AE99" s="18"/>
-    </row>
-    <row r="100" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE99" s="6"/>
+    </row>
+    <row r="100" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A100" s="3"/>
       <c r="K100" s="3"/>
-      <c r="T100" s="18"/>
+      <c r="T100" s="6"/>
       <c r="U100" s="3"/>
-      <c r="AE100" s="18"/>
-    </row>
-    <row r="101" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE100" s="6"/>
+    </row>
+    <row r="101" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A101" s="3"/>
       <c r="K101" s="3"/>
-      <c r="T101" s="18"/>
+      <c r="T101" s="6"/>
       <c r="U101" s="3"/>
-      <c r="AE101" s="18"/>
-    </row>
-    <row r="102" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE101" s="6"/>
+    </row>
+    <row r="102" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A102" s="3"/>
       <c r="K102" s="3"/>
-      <c r="T102" s="18"/>
+      <c r="T102" s="6"/>
       <c r="U102" s="3"/>
-      <c r="AE102" s="18"/>
-    </row>
-    <row r="103" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE102" s="6"/>
+    </row>
+    <row r="103" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A103" s="3"/>
       <c r="K103" s="3"/>
-      <c r="T103" s="18"/>
+      <c r="T103" s="6"/>
       <c r="U103" s="3"/>
-      <c r="AE103" s="18"/>
-    </row>
-    <row r="104" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE103" s="6"/>
+    </row>
+    <row r="104" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A104" s="3"/>
       <c r="K104" s="3"/>
-      <c r="T104" s="18"/>
+      <c r="T104" s="6"/>
       <c r="U104" s="3"/>
-      <c r="V104" s="22" t="s">
+      <c r="V104" s="10" t="s">
         <v>4</v>
       </c>
       <c r="W104" t="s">
         <v>30</v>
       </c>
-      <c r="AE104" s="18"/>
-    </row>
-    <row r="105" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE104" s="6"/>
+    </row>
+    <row r="105" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A105" s="3"/>
       <c r="K105" s="3"/>
-      <c r="T105" s="18"/>
+      <c r="T105" s="6"/>
       <c r="U105" s="3"/>
       <c r="W105" t="s">
         <v>31</v>
       </c>
-      <c r="AE105" s="18"/>
-    </row>
-    <row r="106" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE105" s="6"/>
+    </row>
+    <row r="106" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A106" s="3"/>
       <c r="K106" s="3"/>
-      <c r="T106" s="18"/>
+      <c r="T106" s="6"/>
       <c r="U106" s="3"/>
-      <c r="AE106" s="18"/>
-    </row>
-    <row r="107" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE106" s="6"/>
+    </row>
+    <row r="107" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A107" s="3"/>
       <c r="K107" s="3"/>
-      <c r="T107" s="18"/>
+      <c r="T107" s="6"/>
       <c r="U107" s="3"/>
-      <c r="AE107" s="18"/>
-    </row>
-    <row r="108" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE107" s="6"/>
+    </row>
+    <row r="108" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A108" s="3"/>
       <c r="K108" s="3"/>
-      <c r="T108" s="18"/>
+      <c r="T108" s="6"/>
       <c r="U108" s="3"/>
-      <c r="AE108" s="18"/>
-    </row>
-    <row r="109" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE108" s="6"/>
+    </row>
+    <row r="109" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A109" s="3"/>
       <c r="K109" s="3"/>
-      <c r="T109" s="18"/>
+      <c r="T109" s="6"/>
       <c r="U109" s="3"/>
-      <c r="AE109" s="18"/>
-    </row>
-    <row r="110" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE109" s="6"/>
+    </row>
+    <row r="110" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A110" s="3"/>
       <c r="K110" s="3"/>
-      <c r="T110" s="18"/>
+      <c r="T110" s="6"/>
       <c r="U110" s="3"/>
-      <c r="AE110" s="18"/>
-    </row>
-    <row r="111" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE110" s="6"/>
+    </row>
+    <row r="111" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A111" s="3"/>
       <c r="K111" s="3"/>
-      <c r="T111" s="18"/>
+      <c r="T111" s="6"/>
       <c r="U111" s="3"/>
-      <c r="AE111" s="18"/>
-    </row>
-    <row r="112" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE111" s="6"/>
+    </row>
+    <row r="112" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A112" s="3"/>
       <c r="K112" s="3"/>
-      <c r="T112" s="18"/>
+      <c r="T112" s="6"/>
       <c r="U112" s="3"/>
-      <c r="AE112" s="18"/>
-    </row>
-    <row r="113" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE112" s="6"/>
+    </row>
+    <row r="113" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A113" s="3"/>
       <c r="K113" s="3"/>
-      <c r="T113" s="18"/>
+      <c r="T113" s="6"/>
       <c r="U113" s="3"/>
-      <c r="AE113" s="18"/>
-    </row>
-    <row r="114" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE113" s="6"/>
+    </row>
+    <row r="114" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A114" s="3"/>
       <c r="K114" s="3"/>
-      <c r="T114" s="18"/>
+      <c r="T114" s="6"/>
       <c r="U114" s="3"/>
-      <c r="AE114" s="18"/>
-    </row>
-    <row r="115" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE114" s="6"/>
+    </row>
+    <row r="115" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A115" s="3"/>
       <c r="K115" s="3"/>
-      <c r="T115" s="18"/>
+      <c r="T115" s="6"/>
       <c r="U115" s="3"/>
-      <c r="AE115" s="18"/>
-    </row>
-    <row r="116" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE115" s="6"/>
+    </row>
+    <row r="116" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A116" s="3"/>
       <c r="K116" s="3"/>
-      <c r="T116" s="18"/>
+      <c r="T116" s="6"/>
       <c r="U116" s="3"/>
-      <c r="AE116" s="18"/>
-    </row>
-    <row r="117" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE116" s="6"/>
+    </row>
+    <row r="117" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A117" s="3"/>
       <c r="K117" s="3"/>
-      <c r="T117" s="18"/>
+      <c r="T117" s="6"/>
       <c r="U117" s="3"/>
-      <c r="AE117" s="18"/>
-    </row>
-    <row r="118" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE117" s="6"/>
+    </row>
+    <row r="118" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A118" s="3"/>
       <c r="K118" s="3"/>
-      <c r="T118" s="18"/>
+      <c r="T118" s="6"/>
       <c r="U118" s="3"/>
-      <c r="AE118" s="18"/>
-    </row>
-    <row r="119" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE118" s="6"/>
+    </row>
+    <row r="119" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A119" s="3"/>
       <c r="K119" s="3"/>
-      <c r="T119" s="18"/>
+      <c r="T119" s="6"/>
       <c r="U119" s="3"/>
-      <c r="AE119" s="18"/>
-    </row>
-    <row r="120" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE119" s="6"/>
+    </row>
+    <row r="120" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A120" s="3"/>
       <c r="K120" s="3"/>
-      <c r="T120" s="18"/>
+      <c r="T120" s="6"/>
       <c r="U120" s="3"/>
-      <c r="AE120" s="18"/>
-    </row>
-    <row r="121" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE120" s="6"/>
+    </row>
+    <row r="121" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A121" s="3"/>
       <c r="K121" s="3"/>
-      <c r="T121" s="18"/>
+      <c r="T121" s="6"/>
       <c r="U121" s="3"/>
-      <c r="AE121" s="18"/>
-    </row>
-    <row r="122" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE121" s="6"/>
+    </row>
+    <row r="122" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A122" s="3"/>
       <c r="K122" s="3"/>
-      <c r="T122" s="18"/>
+      <c r="T122" s="6"/>
       <c r="U122" s="3"/>
-      <c r="AE122" s="18"/>
-    </row>
-    <row r="123" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE122" s="6"/>
+    </row>
+    <row r="123" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A123" s="3"/>
       <c r="K123" s="3"/>
-      <c r="T123" s="18"/>
+      <c r="T123" s="6"/>
       <c r="U123" s="3"/>
-      <c r="AE123" s="18"/>
-    </row>
-    <row r="124" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE123" s="6"/>
+    </row>
+    <row r="124" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A124" s="3"/>
       <c r="K124" s="3"/>
-      <c r="T124" s="18"/>
+      <c r="T124" s="6"/>
       <c r="U124" s="3"/>
-      <c r="AE124" s="18"/>
-    </row>
-    <row r="125" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE124" s="6"/>
+    </row>
+    <row r="125" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A125" s="3"/>
       <c r="K125" s="3"/>
-      <c r="T125" s="18"/>
+      <c r="T125" s="6"/>
       <c r="U125" s="3"/>
-      <c r="AE125" s="18"/>
-    </row>
-    <row r="126" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE125" s="6"/>
+    </row>
+    <row r="126" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A126" s="3"/>
       <c r="K126" s="3"/>
-      <c r="T126" s="18"/>
+      <c r="T126" s="6"/>
       <c r="U126" s="3"/>
-      <c r="AE126" s="18"/>
-    </row>
-    <row r="127" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE126" s="6"/>
+    </row>
+    <row r="127" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A127" s="3"/>
       <c r="K127" s="3"/>
-      <c r="T127" s="18"/>
+      <c r="T127" s="6"/>
       <c r="U127" s="3"/>
-      <c r="AE127" s="18"/>
-    </row>
-    <row r="128" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE127" s="6"/>
+    </row>
+    <row r="128" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A128" s="3"/>
       <c r="K128" s="3"/>
-      <c r="T128" s="18"/>
+      <c r="T128" s="6"/>
       <c r="U128" s="3"/>
-      <c r="AE128" s="18"/>
-    </row>
-    <row r="129" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE128" s="6"/>
+    </row>
+    <row r="129" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A129" s="3"/>
       <c r="K129" s="3"/>
-      <c r="T129" s="18"/>
+      <c r="T129" s="6"/>
       <c r="U129" s="3"/>
-      <c r="AE129" s="18"/>
-    </row>
-    <row r="130" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE129" s="6"/>
+    </row>
+    <row r="130" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A130" s="3"/>
       <c r="K130" s="3"/>
-      <c r="T130" s="18"/>
+      <c r="T130" s="6"/>
       <c r="U130" s="3"/>
-      <c r="AE130" s="18"/>
-    </row>
-    <row r="131" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE130" s="6"/>
+    </row>
+    <row r="131" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A131" s="3"/>
       <c r="K131" s="3"/>
-      <c r="T131" s="18"/>
+      <c r="T131" s="6"/>
       <c r="U131" s="3"/>
-      <c r="AE131" s="18"/>
-    </row>
-    <row r="132" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE131" s="6"/>
+    </row>
+    <row r="132" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A132" s="3"/>
       <c r="K132" s="3"/>
-      <c r="T132" s="18"/>
+      <c r="T132" s="6"/>
       <c r="U132" s="3"/>
-      <c r="AE132" s="18"/>
-    </row>
-    <row r="133" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE132" s="6"/>
+    </row>
+    <row r="133" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A133" s="3"/>
       <c r="K133" s="3"/>
-      <c r="T133" s="18"/>
+      <c r="T133" s="6"/>
       <c r="U133" s="3"/>
-      <c r="AE133" s="18"/>
-    </row>
-    <row r="134" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE133" s="6"/>
+    </row>
+    <row r="134" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A134" s="3"/>
       <c r="K134" s="3"/>
-      <c r="T134" s="18"/>
+      <c r="T134" s="6"/>
       <c r="U134" s="3"/>
-      <c r="AE134" s="18"/>
-    </row>
-    <row r="135" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE134" s="6"/>
+    </row>
+    <row r="135" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A135" s="3"/>
       <c r="K135" s="3"/>
-      <c r="T135" s="18"/>
+      <c r="T135" s="6"/>
       <c r="U135" s="3"/>
-      <c r="AE135" s="18"/>
+      <c r="AE135" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -14514,12 +14434,12 @@
       <selection pane="bottomLeft" activeCell="Y42" sqref="Y42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5" defaultRowHeight="15.75" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="5" defaultRowHeight="15" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="30" width="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -14550,10 +14470,10 @@
       <c r="AB1" s="2"/>
       <c r="AC1" s="2"/>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A2" s="3"/>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -14585,71 +14505,71 @@
       <c r="AC3" s="4"/>
       <c r="AD3" s="4"/>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A4" s="28"/>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="28"/>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28"/>
-      <c r="P4" s="28"/>
-      <c r="Q4" s="28"/>
-      <c r="R4" s="28"/>
-      <c r="S4" s="28"/>
-      <c r="T4" s="28"/>
-      <c r="U4" s="28"/>
-      <c r="V4" s="28"/>
-      <c r="W4" s="28"/>
-      <c r="X4" s="28"/>
-      <c r="Y4" s="28"/>
-      <c r="Z4" s="28"/>
-      <c r="AA4" s="28"/>
-      <c r="AB4" s="28"/>
-      <c r="AC4" s="28"/>
-      <c r="AD4" s="28"/>
-    </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A5" s="28"/>
-      <c r="B5" s="28"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
-      <c r="J5" s="28"/>
-      <c r="K5" s="28"/>
-      <c r="L5" s="28"/>
-      <c r="M5" s="28"/>
-      <c r="N5" s="28"/>
-      <c r="O5" s="28"/>
-      <c r="P5" s="28"/>
-      <c r="Q5" s="28"/>
-      <c r="R5" s="28"/>
-      <c r="S5" s="28"/>
-      <c r="T5" s="28"/>
-      <c r="U5" s="28"/>
-      <c r="V5" s="28"/>
-      <c r="W5" s="28"/>
-      <c r="X5" s="28"/>
-      <c r="Y5" s="28"/>
-      <c r="Z5" s="28"/>
-      <c r="AA5" s="28"/>
-      <c r="AB5" s="28"/>
-      <c r="AC5" s="28"/>
-      <c r="AD5" s="28"/>
-    </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="A4" s="29"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="29"/>
+      <c r="M4" s="29"/>
+      <c r="N4" s="29"/>
+      <c r="O4" s="29"/>
+      <c r="P4" s="29"/>
+      <c r="Q4" s="29"/>
+      <c r="R4" s="29"/>
+      <c r="S4" s="29"/>
+      <c r="T4" s="29"/>
+      <c r="U4" s="29"/>
+      <c r="V4" s="29"/>
+      <c r="W4" s="29"/>
+      <c r="X4" s="29"/>
+      <c r="Y4" s="29"/>
+      <c r="Z4" s="29"/>
+      <c r="AA4" s="29"/>
+      <c r="AB4" s="29"/>
+      <c r="AC4" s="29"/>
+      <c r="AD4" s="29"/>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="A5" s="29"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="29"/>
+      <c r="L5" s="29"/>
+      <c r="M5" s="29"/>
+      <c r="N5" s="29"/>
+      <c r="O5" s="29"/>
+      <c r="P5" s="29"/>
+      <c r="Q5" s="29"/>
+      <c r="R5" s="29"/>
+      <c r="S5" s="29"/>
+      <c r="T5" s="29"/>
+      <c r="U5" s="29"/>
+      <c r="V5" s="29"/>
+      <c r="W5" s="29"/>
+      <c r="X5" s="29"/>
+      <c r="Y5" s="29"/>
+      <c r="Z5" s="29"/>
+      <c r="AA5" s="29"/>
+      <c r="AB5" s="29"/>
+      <c r="AC5" s="29"/>
+      <c r="AD5" s="29"/>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A6" s="1"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -14679,45 +14599,45 @@
       <c r="AA6" s="2"/>
       <c r="AB6" s="2"/>
       <c r="AC6" s="2"/>
-      <c r="AD6" s="17"/>
-    </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AD6" s="5"/>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A7" s="3"/>
-      <c r="AD7" s="18"/>
-    </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AD7" s="6"/>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A8" s="3"/>
-      <c r="AD8" s="18"/>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AD8" s="6"/>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A9" s="3"/>
-      <c r="AD9" s="18"/>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AD9" s="6"/>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A10" s="3"/>
-      <c r="AD10" s="18"/>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AD10" s="6"/>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A11" s="3"/>
-      <c r="AD11" s="18"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AD11" s="6"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A12" s="3"/>
-      <c r="AD12" s="18"/>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AD12" s="6"/>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A13" s="3"/>
-      <c r="AD13" s="18"/>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AD13" s="6"/>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A14" s="3"/>
-      <c r="AD14" s="18"/>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AD14" s="6"/>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A15" s="3"/>
-      <c r="AD15" s="18"/>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AD15" s="6"/>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A16" s="3"/>
       <c r="F16" t="s">
         <v>50</v>
@@ -14728,29 +14648,29 @@
       <c r="Y16" t="s">
         <v>52</v>
       </c>
-      <c r="AD16" s="18"/>
-    </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AD16" s="6"/>
+    </row>
+    <row r="17" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A17" s="3"/>
-      <c r="AD17" s="18"/>
-    </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AD17" s="6"/>
+    </row>
+    <row r="18" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A18" s="3"/>
-      <c r="AD18" s="18"/>
-    </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AD18" s="6"/>
+    </row>
+    <row r="19" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A19" s="3"/>
-      <c r="AD19" s="18"/>
-    </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AD19" s="6"/>
+    </row>
+    <row r="20" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A20" s="3"/>
-      <c r="AD20" s="18"/>
-    </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AD20" s="6"/>
+    </row>
+    <row r="21" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A21" s="3"/>
-      <c r="AD21" s="18"/>
-    </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AD21" s="6"/>
+    </row>
+    <row r="22" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A22" s="3"/>
       <c r="F22" t="s">
         <v>34</v>
@@ -14761,37 +14681,37 @@
       <c r="Y22" t="s">
         <v>36</v>
       </c>
-      <c r="AD22" s="18"/>
-    </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AD22" s="6"/>
+    </row>
+    <row r="23" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A23" s="3"/>
-      <c r="AD23" s="18"/>
-    </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AD23" s="6"/>
+    </row>
+    <row r="24" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A24" s="3"/>
-      <c r="AD24" s="18"/>
-    </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AD24" s="6"/>
+    </row>
+    <row r="25" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A25" s="3"/>
-      <c r="AD25" s="18"/>
-    </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AD25" s="6"/>
+    </row>
+    <row r="26" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A26" s="3"/>
-      <c r="AD26" s="18"/>
-    </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AD26" s="6"/>
+    </row>
+    <row r="27" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A27" s="3"/>
-      <c r="AD27" s="18"/>
-    </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AD27" s="6"/>
+    </row>
+    <row r="28" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A28" s="3"/>
-      <c r="AD28" s="18"/>
-    </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AD28" s="6"/>
+    </row>
+    <row r="29" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A29" s="3"/>
-      <c r="AD29" s="18"/>
-    </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AD29" s="6"/>
+    </row>
+    <row r="30" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A30" s="3"/>
       <c r="F30" t="s">
         <v>37</v>
@@ -14799,327 +14719,327 @@
       <c r="P30" t="s">
         <v>38</v>
       </c>
-      <c r="AD30" s="18"/>
-    </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AD30" s="6"/>
+    </row>
+    <row r="31" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A31" s="3"/>
-      <c r="AD31" s="18"/>
-    </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AD31" s="6"/>
+    </row>
+    <row r="32" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A32" s="3"/>
-      <c r="AD32" s="18"/>
-    </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AD32" s="6"/>
+    </row>
+    <row r="33" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A33" s="3"/>
       <c r="P33" t="s">
         <v>39</v>
       </c>
-      <c r="AD33" s="18"/>
-    </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AD33" s="6"/>
+    </row>
+    <row r="34" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A34" s="3"/>
-      <c r="AD34" s="18"/>
-    </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AD34" s="6"/>
+    </row>
+    <row r="35" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A35" s="3"/>
-      <c r="AD35" s="18"/>
-    </row>
-    <row r="36" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AD35" s="6"/>
+    </row>
+    <row r="36" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A36" s="3"/>
-      <c r="AD36" s="18"/>
-    </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AD36" s="6"/>
+    </row>
+    <row r="37" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A37" s="3"/>
       <c r="R37" t="s">
         <v>40</v>
       </c>
-      <c r="AD37" s="18"/>
-    </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AD37" s="6"/>
+    </row>
+    <row r="38" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A38" s="3"/>
       <c r="F38" t="s">
         <v>41</v>
       </c>
-      <c r="AD38" s="18"/>
-    </row>
-    <row r="39" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AD38" s="6"/>
+    </row>
+    <row r="39" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A39" s="3"/>
-      <c r="AD39" s="18"/>
-    </row>
-    <row r="40" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AD39" s="6"/>
+    </row>
+    <row r="40" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A40" s="3"/>
-      <c r="AD40" s="18"/>
-    </row>
-    <row r="41" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AD40" s="6"/>
+    </row>
+    <row r="41" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A41" s="3"/>
-      <c r="AD41" s="18"/>
-    </row>
-    <row r="42" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AD41" s="6"/>
+    </row>
+    <row r="42" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A42" s="3"/>
-      <c r="AD42" s="18"/>
-    </row>
-    <row r="43" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AD42" s="6"/>
+    </row>
+    <row r="43" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A43" s="3"/>
-      <c r="AD43" s="18"/>
-    </row>
-    <row r="44" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AD43" s="6"/>
+    </row>
+    <row r="44" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A44" s="3"/>
-      <c r="AD44" s="18"/>
-    </row>
-    <row r="45" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AD44" s="6"/>
+    </row>
+    <row r="45" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A45" s="3"/>
-      <c r="AD45" s="18"/>
-    </row>
-    <row r="46" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AD45" s="6"/>
+    </row>
+    <row r="46" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A46" s="3"/>
-      <c r="AD46" s="18"/>
-    </row>
-    <row r="47" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AD46" s="6"/>
+    </row>
+    <row r="47" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A47" s="3"/>
-      <c r="AD47" s="18"/>
-    </row>
-    <row r="48" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AD47" s="6"/>
+    </row>
+    <row r="48" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A48" s="3"/>
-      <c r="AD48" s="18"/>
-    </row>
-    <row r="49" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AD48" s="6"/>
+    </row>
+    <row r="49" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A49" s="3"/>
-      <c r="AD49" s="18"/>
-    </row>
-    <row r="50" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AD49" s="6"/>
+    </row>
+    <row r="50" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A50" s="3"/>
-      <c r="AD50" s="18"/>
-    </row>
-    <row r="51" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AD50" s="6"/>
+    </row>
+    <row r="51" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A51" s="3"/>
-      <c r="AD51" s="18"/>
-    </row>
-    <row r="52" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AD51" s="6"/>
+    </row>
+    <row r="52" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A52" s="3"/>
-      <c r="AD52" s="18"/>
-    </row>
-    <row r="53" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AD52" s="6"/>
+    </row>
+    <row r="53" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A53" s="3"/>
-      <c r="AD53" s="18"/>
-    </row>
-    <row r="54" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AD53" s="6"/>
+    </row>
+    <row r="54" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A54" s="3"/>
-      <c r="AD54" s="18"/>
-    </row>
-    <row r="55" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AD54" s="6"/>
+    </row>
+    <row r="55" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A55" s="3"/>
-      <c r="AD55" s="18"/>
-    </row>
-    <row r="56" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AD55" s="6"/>
+    </row>
+    <row r="56" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A56" s="3"/>
-      <c r="AD56" s="18"/>
-    </row>
-    <row r="57" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AD56" s="6"/>
+    </row>
+    <row r="57" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A57" s="3"/>
-      <c r="AD57" s="18"/>
-    </row>
-    <row r="58" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AD57" s="6"/>
+    </row>
+    <row r="58" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A58" s="3"/>
-      <c r="AD58" s="18"/>
-    </row>
-    <row r="59" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AD58" s="6"/>
+    </row>
+    <row r="59" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A59" s="3"/>
-      <c r="AD59" s="18"/>
-    </row>
-    <row r="60" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AD59" s="6"/>
+    </row>
+    <row r="60" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A60" s="3"/>
-      <c r="AD60" s="18"/>
-    </row>
-    <row r="61" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AD60" s="6"/>
+    </row>
+    <row r="61" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A61" s="3"/>
-      <c r="AD61" s="18"/>
-    </row>
-    <row r="62" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AD61" s="6"/>
+    </row>
+    <row r="62" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A62" s="3"/>
-      <c r="AD62" s="18"/>
-    </row>
-    <row r="63" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AD62" s="6"/>
+    </row>
+    <row r="63" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A63" s="3"/>
-      <c r="AD63" s="18"/>
-    </row>
-    <row r="64" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AD63" s="6"/>
+    </row>
+    <row r="64" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A64" s="3"/>
-      <c r="AD64" s="18"/>
-    </row>
-    <row r="65" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AD64" s="6"/>
+    </row>
+    <row r="65" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A65" s="3"/>
-      <c r="AD65" s="18"/>
-    </row>
-    <row r="66" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AD65" s="6"/>
+    </row>
+    <row r="66" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A66" s="3"/>
-      <c r="AD66" s="18"/>
-    </row>
-    <row r="67" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AD66" s="6"/>
+    </row>
+    <row r="67" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A67" s="3"/>
-      <c r="AD67" s="18"/>
-    </row>
-    <row r="68" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AD67" s="6"/>
+    </row>
+    <row r="68" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A68" s="3"/>
-      <c r="AD68" s="18"/>
-    </row>
-    <row r="69" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AD68" s="6"/>
+    </row>
+    <row r="69" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A69" s="3"/>
-      <c r="AD69" s="18"/>
-    </row>
-    <row r="70" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AD69" s="6"/>
+    </row>
+    <row r="70" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A70" s="3"/>
-      <c r="AD70" s="18"/>
-    </row>
-    <row r="71" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AD70" s="6"/>
+    </row>
+    <row r="71" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A71" s="3"/>
-      <c r="AD71" s="18"/>
-    </row>
-    <row r="72" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AD71" s="6"/>
+    </row>
+    <row r="72" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A72" s="3"/>
-      <c r="AD72" s="18"/>
-    </row>
-    <row r="73" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AD72" s="6"/>
+    </row>
+    <row r="73" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A73" s="3"/>
-      <c r="AD73" s="18"/>
-    </row>
-    <row r="74" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AD73" s="6"/>
+    </row>
+    <row r="74" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A74" s="3"/>
-      <c r="AD74" s="18"/>
-    </row>
-    <row r="75" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AD74" s="6"/>
+    </row>
+    <row r="75" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A75" s="3"/>
-      <c r="AD75" s="18"/>
-    </row>
-    <row r="76" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AD75" s="6"/>
+    </row>
+    <row r="76" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A76" s="3"/>
-      <c r="AD76" s="18"/>
-    </row>
-    <row r="77" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AD76" s="6"/>
+    </row>
+    <row r="77" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A77" s="3"/>
-      <c r="AD77" s="18"/>
-    </row>
-    <row r="78" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AD77" s="6"/>
+    </row>
+    <row r="78" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A78" s="3"/>
-      <c r="AD78" s="18"/>
-    </row>
-    <row r="79" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AD78" s="6"/>
+    </row>
+    <row r="79" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A79" s="3"/>
-      <c r="AD79" s="18"/>
-    </row>
-    <row r="80" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AD79" s="6"/>
+    </row>
+    <row r="80" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A80" s="3"/>
-      <c r="AD80" s="18"/>
-    </row>
-    <row r="81" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AD80" s="6"/>
+    </row>
+    <row r="81" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A81" s="3"/>
-      <c r="AD81" s="18"/>
-    </row>
-    <row r="82" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AD81" s="6"/>
+    </row>
+    <row r="82" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A82" s="3"/>
-      <c r="AD82" s="18"/>
-    </row>
-    <row r="83" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AD82" s="6"/>
+    </row>
+    <row r="83" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A83" s="3"/>
-      <c r="AD83" s="18"/>
-    </row>
-    <row r="84" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AD83" s="6"/>
+    </row>
+    <row r="84" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A84" s="3"/>
-      <c r="AD84" s="18"/>
-    </row>
-    <row r="85" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AD84" s="6"/>
+    </row>
+    <row r="85" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A85" s="3"/>
-      <c r="AD85" s="18"/>
-    </row>
-    <row r="86" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AD85" s="6"/>
+    </row>
+    <row r="86" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A86" s="3"/>
-      <c r="AD86" s="18"/>
-    </row>
-    <row r="87" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AD86" s="6"/>
+    </row>
+    <row r="87" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A87" s="3"/>
-      <c r="AD87" s="18"/>
-    </row>
-    <row r="88" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AD87" s="6"/>
+    </row>
+    <row r="88" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A88" s="3"/>
-      <c r="AD88" s="18"/>
-    </row>
-    <row r="89" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AD88" s="6"/>
+    </row>
+    <row r="89" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A89" s="3"/>
-      <c r="AD89" s="18"/>
-    </row>
-    <row r="90" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AD89" s="6"/>
+    </row>
+    <row r="90" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A90" s="3"/>
-      <c r="AD90" s="18"/>
-    </row>
-    <row r="91" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AD90" s="6"/>
+    </row>
+    <row r="91" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A91" s="3"/>
-      <c r="AD91" s="18"/>
-    </row>
-    <row r="92" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AD91" s="6"/>
+    </row>
+    <row r="92" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A92" s="3"/>
-      <c r="AD92" s="18"/>
-    </row>
-    <row r="93" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AD92" s="6"/>
+    </row>
+    <row r="93" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A93" s="3"/>
-      <c r="AD93" s="18"/>
-    </row>
-    <row r="94" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AD93" s="6"/>
+    </row>
+    <row r="94" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A94" s="3"/>
-      <c r="AD94" s="18"/>
-    </row>
-    <row r="95" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AD94" s="6"/>
+    </row>
+    <row r="95" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A95" s="3"/>
-      <c r="AD95" s="18"/>
-    </row>
-    <row r="96" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AD95" s="6"/>
+    </row>
+    <row r="96" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A96" s="3"/>
-      <c r="AD96" s="18"/>
-    </row>
-    <row r="97" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AD96" s="6"/>
+    </row>
+    <row r="97" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A97" s="3"/>
-      <c r="AD97" s="18"/>
-    </row>
-    <row r="98" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AD97" s="6"/>
+    </row>
+    <row r="98" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A98" s="3"/>
-      <c r="AD98" s="18"/>
-    </row>
-    <row r="99" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AD98" s="6"/>
+    </row>
+    <row r="99" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A99" s="3"/>
-      <c r="AD99" s="18"/>
-    </row>
-    <row r="100" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AD99" s="6"/>
+    </row>
+    <row r="100" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A100" s="3"/>
-      <c r="AD100" s="18"/>
-    </row>
-    <row r="101" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AD100" s="6"/>
+    </row>
+    <row r="101" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A101" s="3"/>
-      <c r="AD101" s="18"/>
-    </row>
-    <row r="102" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AD101" s="6"/>
+    </row>
+    <row r="102" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A102" s="3"/>
-      <c r="AD102" s="18"/>
-    </row>
-    <row r="103" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AD102" s="6"/>
+    </row>
+    <row r="103" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A103" s="3"/>
-      <c r="AD103" s="18"/>
-    </row>
-    <row r="104" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AD103" s="6"/>
+    </row>
+    <row r="104" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A104" s="3"/>
-      <c r="AD104" s="18"/>
-    </row>
-    <row r="105" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AD104" s="6"/>
+    </row>
+    <row r="105" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A105" s="3"/>
-      <c r="AD105" s="18"/>
-    </row>
-    <row r="106" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AD105" s="6"/>
+    </row>
+    <row r="106" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A106" s="3"/>
-      <c r="AD106" s="18"/>
-    </row>
-    <row r="107" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AD106" s="6"/>
+    </row>
+    <row r="107" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A107" s="3"/>
-      <c r="AD107" s="18"/>
-    </row>
-    <row r="108" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A108" s="26"/>
+      <c r="AD107" s="6"/>
+    </row>
+    <row r="108" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="A108" s="14"/>
       <c r="B108" s="4"/>
       <c r="C108" s="4"/>
       <c r="D108" s="4"/>
@@ -15148,7 +15068,7 @@
       <c r="AA108" s="4"/>
       <c r="AB108" s="4"/>
       <c r="AC108" s="4"/>
-      <c r="AD108" s="27"/>
+      <c r="AD108" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="1">
